--- a/data/Downscaleddata/pdfs/bottom o2_pdf.xlsx
+++ b/data/Downscaleddata/pdfs/bottom o2_pdf.xlsx
@@ -490,31 +490,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9962450062461993</v>
+        <v>-1.006891955084609</v>
       </c>
       <c r="C2" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0888445552447</v>
+        <v>-1.122610360893091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001918658493193486</v>
+        <v>0.000220047239604384</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0888445552447</v>
+        <v>-1.122610360893091</v>
       </c>
       <c r="G2" t="n">
         <v>0.0003056704307828117</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9962450062461993</v>
+        <v>-1.006891955084609</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000232825036465715</v>
+        <v>0.0002358347077279472</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9962450062461993</v>
+        <v>-1.006891955084609</v>
       </c>
       <c r="K2" t="n">
         <v>0.0002704858289283722</v>
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9596778144095162</v>
+        <v>-0.9702712609924569</v>
       </c>
       <c r="C3" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.047238520888435</v>
+        <v>-1.080834649121508</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001918658493193486</v>
+        <v>0.000249001351201529</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.047238520888435</v>
+        <v>-1.080834649121508</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003451802512772009</v>
+        <v>0.000312938945029029</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9596778144095162</v>
+        <v>-0.9702712609924569</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000232825036465715</v>
+        <v>0.0002686063789909488</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.9596778144095162</v>
+        <v>-0.9702712609924569</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003060803005096529</v>
+        <v>0.0002920661994092861</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9231106225728329</v>
+        <v>-0.9336505669003042</v>
       </c>
       <c r="C4" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.00563248653217</v>
+        <v>-1.039058937349924</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001918658493193486</v>
+        <v>0.0002880351615247383</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.00563248653217</v>
+        <v>-1.039058937349924</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004276114747446297</v>
+        <v>0.000354836310684735</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9231106225728329</v>
+        <v>-0.9336505669003042</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000232825036465715</v>
+        <v>0.0003174183233567164</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.9231106225728329</v>
+        <v>-0.9336505669003042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003705098350033473</v>
+        <v>0.0003462060646073487</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8865434307361498</v>
+        <v>-0.8970298728081517</v>
       </c>
       <c r="C5" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9640264521759048</v>
+        <v>-0.9972832255783406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001918658493193486</v>
+        <v>0.0003399938763591912</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9640264521759048</v>
+        <v>-0.9972832255783406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005562813299319742</v>
+        <v>0.0004500671010680632</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8865434307361498</v>
+        <v>-0.8970298728081517</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002559163155927278</v>
+        <v>0.0004043720039443594</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.8865434307361498</v>
+        <v>-0.8970298728081517</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004801638263594534</v>
+        <v>0.0004418388890772205</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8499762388994666</v>
+        <v>-0.8604091787159991</v>
       </c>
       <c r="C6" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9224204178196398</v>
+        <v>-0.955507513806757</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001918658493193486</v>
+        <v>0.0004083015650161493</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9224204178196398</v>
+        <v>-0.955507513806757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0007297180478694227</v>
+        <v>0.0005867829271833713</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8499762388994666</v>
+        <v>-0.8604091787159991</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003063009537081514</v>
+        <v>0.0005196048461544354</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8499762388994666</v>
+        <v>-0.8604091787159991</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006542539642931501</v>
+        <v>0.0006006075957040277</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8134090470627835</v>
+        <v>-0.8237884846238466</v>
       </c>
       <c r="C7" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8808143834633748</v>
+        <v>-0.9137318020351735</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002134386364859572</v>
+        <v>0.000497009921874432</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8808143834633748</v>
+        <v>-0.9137318020351735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009876062218951358</v>
+        <v>0.0007750798069443362</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8134090470627835</v>
+        <v>-0.8237884846238466</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003779381619882146</v>
+        <v>0.0006705145587856549</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8134090470627835</v>
+        <v>-0.8237884846238466</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008869563223809369</v>
+        <v>0.0008178458680668331</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7768418552261003</v>
+        <v>-0.7871677905316941</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8392083491071098</v>
+        <v>-0.87195609026359</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002551636547878952</v>
+        <v>0.0006258557676221199</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8392083491071098</v>
+        <v>-0.87195609026359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001333184728901451</v>
+        <v>0.001054794790206189</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.7768418552261003</v>
+        <v>-0.7871677905316941</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004813435462657571</v>
+        <v>0.0008731165877703165</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7768418552261003</v>
+        <v>-0.7871677905316941</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001199382250284924</v>
+        <v>0.001102074524598586</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7402746633894172</v>
+        <v>-0.7505470964395415</v>
       </c>
       <c r="C9" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7976023147508449</v>
+        <v>-0.8301803784920065</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003200275923910376</v>
+        <v>0.0008117333846288922</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7976023147508449</v>
+        <v>-0.8301803784920065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001789411636140248</v>
+        <v>0.001421445871252659</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7402746633894172</v>
+        <v>-0.7505470964395415</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006400537750067599</v>
+        <v>0.001139599138939787</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.7402746633894172</v>
+        <v>-0.7505470964395415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001603914381964754</v>
+        <v>0.001475059604575962</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7037074715527341</v>
+        <v>-0.7139264023473889</v>
       </c>
       <c r="C10" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7559962803945799</v>
+        <v>-0.788404666720423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004204247136220533</v>
+        <v>0.001069439359057916</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7559962803945799</v>
+        <v>-0.788404666720423</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002386568161974252</v>
+        <v>0.001909717839441243</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7037074715527341</v>
+        <v>-0.7139264023473889</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008526437282869052</v>
+        <v>0.001483328836394042</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.7037074715527341</v>
+        <v>-0.7139264023473889</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002127278202191928</v>
+        <v>0.001965617193323959</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6671402797160508</v>
+        <v>-0.6773057082552363</v>
       </c>
       <c r="C11" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7143902460383149</v>
+        <v>-0.7466289549488394</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005668789365404966</v>
+        <v>0.001410090296307445</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7143902460383149</v>
+        <v>-0.7466289549488394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003147728961786817</v>
+        <v>0.002541802161308112</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6671402797160508</v>
+        <v>-0.6773057082552363</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001149050119378528</v>
+        <v>0.001916856507314801</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.6671402797160508</v>
+        <v>-0.6773057082552363</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002788225012006625</v>
+        <v>0.002591004499989078</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6305730878793676</v>
+        <v>-0.6406850141630838</v>
       </c>
       <c r="C12" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6727842116820499</v>
+        <v>-0.704853243177256</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0007733227514850468</v>
+        <v>0.00185248725909862</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6727842116820499</v>
+        <v>-0.704853243177256</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004111965349743073</v>
+        <v>0.003341590973316794</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.6305730878793676</v>
+        <v>-0.6406850141630838</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001533627467617041</v>
+        <v>0.00247927043171881</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.6305730878793676</v>
+        <v>-0.6406850141630838</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003620929836854701</v>
+        <v>0.00337591926621138</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5940058960426845</v>
+        <v>-0.6040643200709312</v>
       </c>
       <c r="C13" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.631178177325785</v>
+        <v>-0.6630775314056725</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001053317420845032</v>
+        <v>0.002416459431923103</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.631178177325785</v>
+        <v>-0.6630775314056725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005325557195999767</v>
+        <v>0.004371173393699526</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5940058960426845</v>
+        <v>-0.6040643200709312</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002027376507873381</v>
+        <v>0.003190860934162366</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.5940058960426845</v>
+        <v>-0.6040643200709312</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004662864894322588</v>
+        <v>0.004351767503578841</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5574387042060014</v>
+        <v>-0.5674436259787787</v>
       </c>
       <c r="C14" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5895721429695201</v>
+        <v>-0.6213018196340889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001447417685056702</v>
+        <v>0.003126831125220591</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5895721429695201</v>
+        <v>-0.6213018196340889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006829872886951144</v>
+        <v>0.005659443981352266</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5574387042060014</v>
+        <v>-0.5674436259787787</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002651640159912989</v>
+        <v>0.004066130797832621</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5574387042060014</v>
+        <v>-0.5674436259787787</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005941136382325743</v>
+        <v>0.005560350000504547</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5208715123693182</v>
+        <v>-0.5308229318866261</v>
       </c>
       <c r="C15" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5479661086132551</v>
+        <v>-0.5795261078625054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001963442249335457</v>
+        <v>0.004016895220059702</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5479661086132551</v>
+        <v>-0.5795261078625054</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008675792616824</v>
+        <v>0.007251521720728096</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5208715123693182</v>
+        <v>-0.5308229318866261</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003466838888445085</v>
+        <v>0.005136847727517148</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.5208715123693182</v>
+        <v>-0.5308229318866261</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007487055515803891</v>
+        <v>0.007035359379082607</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4843043205326351</v>
+        <v>-0.4942022377944736</v>
       </c>
       <c r="C16" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5063600742569901</v>
+        <v>-0.5377503960909219</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002631838807242398</v>
+        <v>0.005120029291145784</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5063600742569901</v>
+        <v>-0.5377503960909219</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01088468348767501</v>
+        <v>0.009179365699866467</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4843043205326351</v>
+        <v>-0.4942022377944736</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004475947685382988</v>
+        <v>0.006445584129712008</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.4843043205326351</v>
+        <v>-0.4942022377944736</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009339409414739541</v>
+        <v>0.008809793930009692</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4477371286959518</v>
+        <v>-0.457581543702321</v>
       </c>
       <c r="C17" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4647540399007252</v>
+        <v>-0.4959746843193384</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003502802171354942</v>
+        <v>0.006469490225952209</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4647540399007252</v>
+        <v>-0.4959746843193384</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01350628318549883</v>
+        <v>0.01148635795863643</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4477371286959518</v>
+        <v>-0.457581543702321</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005702216099105986</v>
+        <v>0.008009848439474979</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.4477371286959518</v>
+        <v>-0.457581543702321</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01154029065141707</v>
+        <v>0.0109146121050794</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4111699368592687</v>
+        <v>-0.4209608496101684</v>
       </c>
       <c r="C18" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4231480055444602</v>
+        <v>-0.4541989725477549</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004580693725379141</v>
+        <v>0.008111317740974493</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4231480055444602</v>
+        <v>-0.4541989725477549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01659912958366873</v>
+        <v>0.01424630092949525</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4111699368592687</v>
+        <v>-0.4209608496101684</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007173931782534951</v>
+        <v>0.009865784586613196</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.4111699368592687</v>
+        <v>-0.4209608496101684</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01413163168859658</v>
+        <v>0.01339476738141726</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3746027450225856</v>
+        <v>-0.3843401555180159</v>
       </c>
       <c r="C19" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3815419711881952</v>
+        <v>-0.4124232607761713</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00590648326409775</v>
+        <v>0.01008139121625742</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3815419711881952</v>
+        <v>-0.4124232607761713</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02018693385133553</v>
+        <v>0.01747784060688036</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3746027450225856</v>
+        <v>-0.3843401555180159</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008938511788391333</v>
+        <v>0.01204057729321403</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3746027450225856</v>
+        <v>-0.3843401555180159</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01712553032178758</v>
+        <v>0.01628965176061263</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3380355531859024</v>
+        <v>-0.3477194614258633</v>
       </c>
       <c r="C20" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3399359368319302</v>
+        <v>-0.3706475490045879</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007517032560649988</v>
+        <v>0.01240793910537621</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3399359368319302</v>
+        <v>-0.3706475490045879</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02431618368485751</v>
+        <v>0.0212248472648104</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3380355531859024</v>
+        <v>-0.3477194614258633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01100772427110509</v>
+        <v>0.01455895901751625</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.3380355531859024</v>
+        <v>-0.3477194614258633</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0205571217348611</v>
+        <v>0.01961658801612579</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3014683613492193</v>
+        <v>-0.3110987673337108</v>
       </c>
       <c r="C21" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2983299024756653</v>
+        <v>-0.3288718372330044</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009426375861926784</v>
+        <v>0.01513237090474084</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2983299024756653</v>
+        <v>-0.3288718372330044</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02897556160982895</v>
+        <v>0.02549820632156246</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3014683613492193</v>
+        <v>-0.3110987673337108</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01340212228653547</v>
+        <v>0.01745221622069499</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.3014683613492193</v>
+        <v>-0.3110987673337108</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0244608985360093</v>
+        <v>0.02338865585822769</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2649011695125361</v>
+        <v>-0.2744780732415582</v>
       </c>
       <c r="C22" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2567238681194003</v>
+        <v>-0.2870961254614208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01166055751458722</v>
+        <v>0.01824909701279691</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2567238681194003</v>
+        <v>-0.2870961254614208</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03421076067761828</v>
+        <v>0.03033887971476855</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2649011695125361</v>
+        <v>-0.2744780732415582</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01612538922068205</v>
+        <v>0.02075174369238719</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.2649011695125361</v>
+        <v>-0.2744780732415582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02883939646103756</v>
+        <v>0.02764423078234177</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.228333977675853</v>
+        <v>-0.2378573791494056</v>
       </c>
       <c r="C23" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2151178337631353</v>
+        <v>-0.2453204136898373</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01424664232956929</v>
+        <v>0.02178453092642932</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2151178337631353</v>
+        <v>-0.2453204136898373</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03999481400153814</v>
+        <v>0.03573692262121456</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.228333977675853</v>
+        <v>-0.2378573791494056</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01921472329091146</v>
+        <v>0.02446030074375469</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.228333977675853</v>
+        <v>-0.2378573791494056</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03369927050614711</v>
+        <v>0.03237673204339047</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1917667858391697</v>
+        <v>-0.2012366850572531</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002096316233177067</v>
+        <v>0.0001882980719196578</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1735117994068703</v>
+        <v>-0.2035447019182538</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01717478339907842</v>
+        <v>0.0257521633736362</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1735117994068703</v>
+        <v>-0.2035447019182538</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04631309732571418</v>
+        <v>0.04169460759222578</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1917667858391697</v>
+        <v>-0.2012366850572531</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02265841796558049</v>
+        <v>0.02858003056516543</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1917667858391697</v>
+        <v>-0.2012366850572531</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03901884129535962</v>
+        <v>0.03759524720468648</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1551995940024866</v>
+        <v>-0.1646159909651005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003214317527068832</v>
+        <v>0.000286836244023986</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1319057650506054</v>
+        <v>-0.1617689901466703</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02045581830560938</v>
+        <v>0.03011722707390535</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1319057650506054</v>
+        <v>-0.1617689901466703</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05315251324861037</v>
+        <v>0.04819867405910172</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1551995940024866</v>
+        <v>-0.1646159909651005</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02643624864842651</v>
+        <v>0.03312629610323124</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1551995940024866</v>
+        <v>-0.1646159909651005</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04479882243180864</v>
+        <v>0.04327050471730188</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1186324021658035</v>
+        <v>-0.127995296872948</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004803609040050863</v>
+        <v>0.0004350248457589858</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0902997306943405</v>
+        <v>-0.1199932783750868</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02409182505686343</v>
+        <v>0.03489604724974054</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0902997306943405</v>
+        <v>-0.1199932783750868</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06046947035915471</v>
+        <v>0.05520914111759747</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1186324021658035</v>
+        <v>-0.127995296872948</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03054938898116522</v>
+        <v>0.03807734023477408</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1186324021658035</v>
+        <v>-0.127995296872948</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05101389830045189</v>
+        <v>0.04938158607832768</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.08206521032912029</v>
+        <v>-0.09137460278079546</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007077046905398686</v>
+        <v>0.00064340726043216</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04869369633807552</v>
+        <v>-0.07821756660350321</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02806374225538389</v>
+        <v>0.04004641283381449</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.04869369633807552</v>
+        <v>-0.07821756660350321</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06820093854549447</v>
+        <v>0.06267965300018512</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.08206521032912029</v>
+        <v>-0.09137460278079546</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03500007973962539</v>
+        <v>0.04340589556204984</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.08206521032912029</v>
+        <v>-0.09137460278079546</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05762640039108141</v>
+        <v>0.05590280453248669</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.04549801849243718</v>
+        <v>-0.05475390868864283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00103526161459865</v>
+        <v>0.0009379931059661348</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.007087661981810545</v>
+        <v>-0.03644185483191964</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0323575666605466</v>
+        <v>0.04551814017587797</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.007087661981810545</v>
+        <v>-0.03644185483191964</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07627335805986607</v>
+        <v>0.0705428061530569</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.04549801849243718</v>
+        <v>-0.05475390868864283</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03974144215843078</v>
+        <v>0.04909823296936206</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.04549801849243718</v>
+        <v>-0.05475390868864283</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06458663409525135</v>
+        <v>0.06279078624604353</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.008930826655753954</v>
+        <v>-0.01813321459649031</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001480589799802243</v>
+        <v>0.001357553133932146</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03451837237445443</v>
+        <v>0.005333856939663706</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03696052136091796</v>
+        <v>0.0513122194849291</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03451837237445443</v>
+        <v>0.005333856939663706</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08462917427983994</v>
+        <v>0.07874703496016174</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.008930826655753954</v>
+        <v>-0.01813321459649031</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04474378257751848</v>
+        <v>0.055122016551992</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.008930826655753954</v>
+        <v>-0.01813321459649031</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07185044237259922</v>
+        <v>0.06999543471966792</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02763636518092916</v>
+        <v>0.01848747949566221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002089797375512987</v>
+        <v>0.001921973919305394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07612440673071941</v>
+        <v>0.04710956871124727</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04184519601620148</v>
+        <v>0.05733252201914179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07612440673071941</v>
+        <v>0.04710956871124727</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09317163323134171</v>
+        <v>0.0871962544070919</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02763636518092916</v>
+        <v>0.01848747949566221</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04999562067275917</v>
+        <v>0.06141143569588058</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02763636518092916</v>
+        <v>0.01848747949566221</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07936042204224314</v>
+        <v>0.07746231390067031</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06420355701761238</v>
+        <v>0.05510817358781472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002924030809080597</v>
+        <v>0.00268608705114154</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1177304410869844</v>
+        <v>0.08888528048283084</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04700995105373896</v>
+        <v>0.06358231239776234</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1177304410869844</v>
+        <v>0.08888528048283084</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1018229253656226</v>
+        <v>0.09582057525250399</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06420355701761238</v>
+        <v>0.05510817358781472</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05546500762392095</v>
+        <v>0.06792352348475365</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06420355701761238</v>
+        <v>0.05510817358781472</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08705722310062484</v>
+        <v>0.08513358057601617</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1007707488542956</v>
+        <v>0.09172886767996746</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004010793881794576</v>
+        <v>0.003719849891184256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1593364754432494</v>
+        <v>0.1306609922544142</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0524159542065854</v>
+        <v>0.06997697720485467</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1593364754432494</v>
+        <v>0.1306609922544142</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1104923592593053</v>
+        <v>0.1045245948880591</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1007707488542956</v>
+        <v>0.09172886767996746</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06112335696470502</v>
+        <v>0.07461138256726017</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1007707488542956</v>
+        <v>0.09172886767996746</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09489544451967452</v>
+        <v>0.09294993312692068</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1373379406909786</v>
+        <v>0.12834956177212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00543445543355509</v>
+        <v>0.005052851302404041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2009425097995143</v>
+        <v>0.1724367040259978</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05807787084148736</v>
+        <v>0.07650958701481701</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2009425097995143</v>
+        <v>0.1724367040259978</v>
       </c>
       <c r="G33" t="n">
-        <v>0.119093779578516</v>
+        <v>0.1132173842410994</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1373379406909786</v>
+        <v>0.12834956177212</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06696480332745221</v>
+        <v>0.0814116340986273</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1373379406909786</v>
+        <v>0.12834956177212</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1028154869198506</v>
+        <v>0.1008636510409338</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1739051325276618</v>
+        <v>0.1649702558642725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007292109197391029</v>
+        <v>0.006782753695855938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2425485441557793</v>
+        <v>0.2142124157975813</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0639503071593422</v>
+        <v>0.08311830412245841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2425485441557793</v>
+        <v>0.2142124157975813</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1275541304563705</v>
+        <v>0.1218225111485416</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1739051325276618</v>
+        <v>0.1649702558642725</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07297059030755747</v>
+        <v>0.08827835132804827</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1739051325276618</v>
+        <v>0.1649702558642725</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1107608530926437</v>
+        <v>0.1088231900004062</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.210472324364345</v>
+        <v>0.201590949956425</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009615029702285593</v>
+        <v>0.00901217355652062</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2841545785120443</v>
+        <v>0.2559881275691649</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07004368751171301</v>
+        <v>0.08979066945522686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2841545785120443</v>
+        <v>0.2559881275691649</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1357948729621529</v>
+        <v>0.1302461478344851</v>
       </c>
       <c r="H35" t="n">
-        <v>0.210472324364345</v>
+        <v>0.201590949956425</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0790955204659876</v>
+        <v>0.09514730491828589</v>
       </c>
       <c r="J35" t="n">
-        <v>0.210472324364345</v>
+        <v>0.201590949956425</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1186923195482888</v>
+        <v>0.1167755507768628</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.247039516201028</v>
+        <v>0.2382116440485775</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01253249839443783</v>
+        <v>0.01177245115017805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3257606128683093</v>
+        <v>0.2977638393407485</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07636492436184428</v>
+        <v>0.09648004052491126</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3257606128683093</v>
+        <v>0.2977638393407485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1437506882327692</v>
+        <v>0.1384330411686132</v>
       </c>
       <c r="H36" t="n">
-        <v>0.247039516201028</v>
+        <v>0.2382116440485775</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08534282808917547</v>
+        <v>0.101988861861949</v>
       </c>
       <c r="J36" t="n">
-        <v>0.247039516201028</v>
+        <v>0.2382116440485775</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1265819416697431</v>
+        <v>0.1246802088856148</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2836067080377113</v>
+        <v>0.2748323381407303</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01616789140150984</v>
+        <v>0.01520901907568964</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3673666472245742</v>
+        <v>0.3395395511123318</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08286601136417342</v>
+        <v>0.1031879807854973</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3673666472245742</v>
+        <v>0.3395395511123318</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1513495657502598</v>
+        <v>0.1462989885891491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2836067080377113</v>
+        <v>0.2748323381407303</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09172312364693751</v>
+        <v>0.1087507704978213</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2836067080377113</v>
+        <v>0.2748323381407303</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1343956062960958</v>
+        <v>0.1325180029641246</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3201738998743945</v>
+        <v>0.3114530322328828</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02053743536443349</v>
+        <v>0.01943780326249599</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4089726815808392</v>
+        <v>0.3813152628839154</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08957255150501504</v>
+        <v>0.1098715725340752</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4089726815808392</v>
+        <v>0.3813152628839154</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1585886774011596</v>
+        <v>0.1538318335997027</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3201738998743945</v>
+        <v>0.3114530322328828</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09822704614222764</v>
+        <v>0.1154150337646269</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3201738998743945</v>
+        <v>0.3114530322328828</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1420989906446547</v>
+        <v>0.1402701116573729</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3567410917110777</v>
+        <v>0.3480737263250353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02580262670309685</v>
+        <v>0.02447128244458861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4505787159371042</v>
+        <v>0.4230909746554989</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0964576243215024</v>
+        <v>0.116553158874718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4505787159371042</v>
+        <v>0.4230909746554989</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1654340286003297</v>
+        <v>0.1609780272141122</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3567410917110777</v>
+        <v>0.3480737263250353</v>
       </c>
       <c r="I39" t="n">
-        <v>0.104815898620108</v>
+        <v>0.1219724213874086</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3567410917110777</v>
+        <v>0.3480737263250353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1496770606015339</v>
+        <v>0.1479017441443286</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3933082835477607</v>
+        <v>0.3846944204171878</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03207754544525759</v>
+        <v>0.03048491002155232</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4921847502933692</v>
+        <v>0.4648666864270823</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1035026390168783</v>
+        <v>0.1231997395690007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4921847502933692</v>
+        <v>0.4648666864270823</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1718765686213116</v>
+        <v>0.1676978991899467</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3933082835477607</v>
+        <v>0.3846944204171878</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1115062762528573</v>
+        <v>0.1283845591540769</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3933082835477607</v>
+        <v>0.3846944204171878</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1571404349098178</v>
+        <v>0.1553933163016005</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4298754753844439</v>
+        <v>0.4213151145093403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03933227504557631</v>
+        <v>0.03756173732547944</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5337907846496341</v>
+        <v>0.5066423981986659</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1107138730944655</v>
+        <v>0.1298253803448168</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5337907846496341</v>
+        <v>0.5066423981986659</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1779084667011418</v>
+        <v>0.1740130568141431</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4298754753844439</v>
+        <v>0.4213151145093403</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1182926903362147</v>
+        <v>0.1346521007651424</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4298754753844439</v>
+        <v>0.4213151145093403</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1644781450078604</v>
+        <v>0.1627647025060093</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4664426672211271</v>
+        <v>0.4579358086014931</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04771915898065996</v>
+        <v>0.04566430707487339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5753968190058991</v>
+        <v>0.5484181099702494</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1180599877213352</v>
+        <v>0.1364263792100971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5753968190058991</v>
+        <v>0.5484181099702494</v>
       </c>
       <c r="G42" t="n">
-        <v>0.183545549596399</v>
+        <v>0.1799268760775823</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4664426672211271</v>
+        <v>0.4579358086014931</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1251435762378106</v>
+        <v>0.140789174865204</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4664426672211271</v>
+        <v>0.4579358086014931</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1716789179372054</v>
+        <v>0.1700117393767895</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5030098590578101</v>
+        <v>0.4945565026936456</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05728561274953176</v>
+        <v>0.05494923834512879</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6170028533621641</v>
+        <v>0.590193821741833</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1255088689225213</v>
+        <v>0.1430040494686466</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6170028533621641</v>
+        <v>0.590193821741833</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1888456355934279</v>
+        <v>0.1854811511800096</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5030098590578101</v>
+        <v>0.4945565026936456</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1320454146694418</v>
+        <v>0.1468004717543089</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5030098590578101</v>
+        <v>0.4945565026936456</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1787375150541924</v>
+        <v>0.1771220721883253</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5395770508944934</v>
+        <v>0.5311771967857981</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06792430768844425</v>
+        <v>0.06540667967090212</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6586088877184291</v>
+        <v>0.6319695335134166</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1330612983508121</v>
+        <v>0.149574248769337</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6586088877184291</v>
+        <v>0.6319695335134166</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1938432430692505</v>
+        <v>0.1906858243242552</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5395770508944934</v>
+        <v>0.5311771967857981</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1389955152850719</v>
+        <v>0.1527061987357872</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5395770508944934</v>
+        <v>0.5311771967857981</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1856730822748343</v>
+        <v>0.1840948316924376</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5761442427311766</v>
+        <v>0.5677978908779506</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07971490099351931</v>
+        <v>0.07692170639948645</v>
       </c>
       <c r="D45" t="n">
-        <v>0.700214922074694</v>
+        <v>0.6737452452849999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1406862826119382</v>
+        <v>0.1561339290289213</v>
       </c>
       <c r="F45" t="n">
-        <v>0.700214922074694</v>
+        <v>0.6737452452849999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.198580095923957</v>
+        <v>0.1955974089216797</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5761442427311766</v>
+        <v>0.5677978908779506</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1459771844894669</v>
+        <v>0.1585206295071735</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5761442427311766</v>
+        <v>0.5677978908779506</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1924875008823566</v>
+        <v>0.1909427835083165</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6127114345678598</v>
+        <v>0.6044185849701031</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09258654391761915</v>
+        <v>0.08956272566820564</v>
       </c>
       <c r="D46" t="n">
-        <v>0.741820956430959</v>
+        <v>0.7155209570565835</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1483662218797943</v>
+        <v>0.1627170912882555</v>
       </c>
       <c r="F46" t="n">
-        <v>0.741820956430959</v>
+        <v>0.7155209570565835</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2031260122677823</v>
+        <v>0.2002787921387736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6127114345678598</v>
+        <v>0.6044185849701031</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1529743839203226</v>
+        <v>0.1642526378658475</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6127114345678598</v>
+        <v>0.6044185849701031</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1991776740981049</v>
+        <v>0.1976703301521317</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6492786264045428</v>
+        <v>0.6410392790622557</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1063471287689378</v>
+        <v>0.1031904230318478</v>
       </c>
       <c r="D47" t="n">
-        <v>0.783426990787224</v>
+        <v>0.757296668828167</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1560698633543574</v>
+        <v>0.1693077016505756</v>
       </c>
       <c r="F47" t="n">
-        <v>0.783426990787224</v>
+        <v>0.757296668828167</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2075202336792455</v>
+        <v>0.2047694455426693</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6492786264045428</v>
+        <v>0.6410392790622557</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1599584680832248</v>
+        <v>0.1699450731681774</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6492786264045428</v>
+        <v>0.6410392790622557</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2057439148586125</v>
+        <v>0.2042786805493443</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.685845818241226</v>
+        <v>0.6776599731544084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1209485400127624</v>
+        <v>0.1176121834007743</v>
       </c>
       <c r="D48" t="n">
-        <v>0.825033025143489</v>
+        <v>0.7990723805997504</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1637915298971768</v>
+        <v>0.1759446084487023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.825033025143489</v>
+        <v>0.7990723805997504</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2118364246674213</v>
+        <v>0.2091534554417175</v>
       </c>
       <c r="H48" t="n">
-        <v>0.685845818241226</v>
+        <v>0.6776599731544084</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1669316558825813</v>
+        <v>0.1756154886555425</v>
       </c>
       <c r="J48" t="n">
-        <v>0.685845818241226</v>
+        <v>0.6776599731544084</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2121963636381924</v>
+        <v>0.2107621075761796</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7224130100779093</v>
+        <v>0.7142806672465609</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1361991103705882</v>
+        <v>0.1327545514204162</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8666390594997539</v>
+        <v>0.840848092371334</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1714913469015378</v>
+        <v>0.1826101791312358</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8666390594997539</v>
+        <v>0.840848092371334</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2161384049807542</v>
+        <v>0.2134760769055386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7224130100779093</v>
+        <v>0.7142806672465609</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1738890606931686</v>
+        <v>0.1812719783307669</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7224130100779093</v>
+        <v>0.7142806672465609</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2185388130064422</v>
+        <v>0.2171345180061988</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7589802019145923</v>
+        <v>0.7509013613387134</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1518608264015603</v>
+        <v>0.1483790878962729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9082450938560187</v>
+        <v>0.8826238041429175</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1791733236455599</v>
+        <v>0.1893239833478737</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9082450938560187</v>
+        <v>0.8826238041429175</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2204528076361061</v>
+        <v>0.2177840459629435</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7589802019145923</v>
+        <v>0.7509013613387134</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1808141102101125</v>
+        <v>0.1869474815641835</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7589802019145923</v>
+        <v>0.7509013613387134</v>
       </c>
       <c r="K50" t="n">
-        <v>0.224766436950258</v>
+        <v>0.2234002917310633</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7955473937512755</v>
+        <v>0.787522055430866</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1677541299822856</v>
+        <v>0.1642602894332475</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9498511282122839</v>
+        <v>0.9243995159145009</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1868011384392834</v>
+        <v>0.1960708426282047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9498511282122839</v>
+        <v>0.9243995159145009</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2248298710309094</v>
+        <v>0.2221414036076667</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7955473937512755</v>
+        <v>0.787522055430866</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1877207866833669</v>
+        <v>0.19267172751095</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7955473937512755</v>
+        <v>0.787522055430866</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2308795238355514</v>
+        <v>0.2295559730995664</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8321145855879587</v>
+        <v>0.8241427495230185</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1836388451926835</v>
+        <v>0.1801898428803756</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9914571625685487</v>
+        <v>0.9661752276860847</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1943580086532022</v>
+        <v>0.2028563042915905</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9914571625685487</v>
+        <v>0.9661752276860847</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2293114400468045</v>
+        <v>0.2265800900935187</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8321145855879587</v>
+        <v>0.8241427495230185</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1946119920090884</v>
+        <v>0.1984555299154943</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8321145855879587</v>
+        <v>0.8241427495230185</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2368962621187279</v>
+        <v>0.2355978107409523</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8686817774246419</v>
+        <v>0.8607634436151712</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1993123363281302</v>
+        <v>0.1959357266036129</v>
       </c>
       <c r="D53" t="n">
-        <v>1.033063196924814</v>
+        <v>1.007950939457668</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2018277382743738</v>
+        <v>0.2096414284494633</v>
       </c>
       <c r="F53" t="n">
-        <v>1.033063196924814</v>
+        <v>1.007950939457668</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2339116445356557</v>
+        <v>0.2311201978764302</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8686817774246419</v>
+        <v>0.8607634436151712</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2014776763751907</v>
+        <v>0.2043063288988883</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8686817774246419</v>
+        <v>0.8607634436151712</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2428152438120646</v>
+        <v>0.2415419346788736</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9052489692613249</v>
+        <v>0.8973841377073237</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2145320076946026</v>
+        <v>0.2113185834476963</v>
       </c>
       <c r="D54" t="n">
-        <v>1.074669231281079</v>
+        <v>1.049726651229252</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2091871970610868</v>
+        <v>0.2164345871551688</v>
       </c>
       <c r="F54" t="n">
-        <v>1.074669231281079</v>
+        <v>1.049726651229252</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2386268384372366</v>
+        <v>0.235776168696208</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9052489692613249</v>
+        <v>0.8973841377073237</v>
       </c>
       <c r="I54" t="n">
-        <v>0.208318582197367</v>
+        <v>0.2102542457767415</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9052489692613249</v>
+        <v>0.8973841377073237</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2486361664388933</v>
+        <v>0.2473915610971847</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9418161610980081</v>
+        <v>0.9340048317994762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.229127969502934</v>
+        <v>0.2260775658289911</v>
       </c>
       <c r="D55" t="n">
-        <v>1.116275265637344</v>
+        <v>1.091502363000835</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2164096537326086</v>
+        <v>0.2231923567515303</v>
       </c>
       <c r="F55" t="n">
-        <v>1.116275265637344</v>
+        <v>1.091502363000835</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2434602893021076</v>
+        <v>0.2405619848559375</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9418161610980081</v>
+        <v>0.9340048317994762</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2151365621417455</v>
+        <v>0.2162993595074193</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9418161610980081</v>
+        <v>0.9340048317994762</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2543599359240825</v>
+        <v>0.2531429470357906</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9783833529346914</v>
+        <v>0.9706255258916288</v>
       </c>
       <c r="C56" t="n">
-        <v>0.243014552397585</v>
+        <v>0.2401123305784977</v>
       </c>
       <c r="D56" t="n">
-        <v>1.157881299993609</v>
+        <v>1.133278074772418</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2234709879844279</v>
+        <v>0.2298904939747765</v>
       </c>
       <c r="F56" t="n">
-        <v>1.157881299993609</v>
+        <v>1.133278074772418</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2483877277359025</v>
+        <v>0.2454569926480827</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9783833529346914</v>
+        <v>0.9706255258916288</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2219234707842207</v>
+        <v>0.2224183706871208</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9783833529346914</v>
+        <v>0.9706255258916288</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2599779397350739</v>
+        <v>0.2587960768783416</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.014950544771374</v>
+        <v>1.007246219983781</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2559947134953008</v>
+        <v>0.2533585148615481</v>
       </c>
       <c r="D57" t="n">
-        <v>1.199487334349874</v>
+        <v>1.175053786544002</v>
       </c>
       <c r="E57" t="n">
-        <v>0.230362281708246</v>
+        <v>0.2365189507422223</v>
       </c>
       <c r="F57" t="n">
-        <v>1.199487334349874</v>
+        <v>1.175053786544002</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2533716238921649</v>
+        <v>0.2504405957101362</v>
       </c>
       <c r="H57" t="n">
-        <v>1.014950544771374</v>
+        <v>1.007246219983781</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2286427923073653</v>
+        <v>0.2286213754504991</v>
       </c>
       <c r="J57" t="n">
-        <v>1.014950544771374</v>
+        <v>1.007246219983781</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2654965001741694</v>
+        <v>0.2643420772020377</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.051517736608058</v>
+        <v>1.043866914075934</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2680557557411393</v>
+        <v>0.265617655725701</v>
       </c>
       <c r="D58" t="n">
-        <v>1.241093368706139</v>
+        <v>1.216829498315586</v>
       </c>
       <c r="E58" t="n">
-        <v>0.237034511250678</v>
+        <v>0.2430293325524706</v>
       </c>
       <c r="F58" t="n">
-        <v>1.241093368706139</v>
+        <v>1.216829498315586</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2583951800871073</v>
+        <v>0.2554697866839896</v>
       </c>
       <c r="H58" t="n">
-        <v>1.051517736608058</v>
+        <v>1.043866914075934</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2352819797695841</v>
+        <v>0.2348853603165216</v>
       </c>
       <c r="J58" t="n">
-        <v>1.051517736608058</v>
+        <v>1.043866914075934</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2709000363821086</v>
+        <v>0.2697782268804135</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.088084928444741</v>
+        <v>1.080487608168087</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2792541069900661</v>
+        <v>0.2769754037840459</v>
       </c>
       <c r="D59" t="n">
-        <v>1.282699403062404</v>
+        <v>1.258605210087169</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2434955918795558</v>
+        <v>0.2494215340187594</v>
       </c>
       <c r="F59" t="n">
-        <v>1.282699403062404</v>
+        <v>1.258605210087169</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2633683914162916</v>
+        <v>0.2604808621725755</v>
       </c>
       <c r="H59" t="n">
-        <v>1.088084928444741</v>
+        <v>1.080487608168087</v>
       </c>
       <c r="I59" t="n">
-        <v>0.241813435533575</v>
+        <v>0.2411787519103557</v>
       </c>
       <c r="J59" t="n">
-        <v>1.088084928444741</v>
+        <v>1.080487608168087</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2761767580994435</v>
+        <v>0.2750880145246266</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.124652120281424</v>
+        <v>1.117108302260239</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2895153579029144</v>
+        <v>0.2874919599617712</v>
       </c>
       <c r="D60" t="n">
-        <v>1.324305437418668</v>
+        <v>1.300380921858753</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2497071235552807</v>
+        <v>0.2556744934417963</v>
       </c>
       <c r="F60" t="n">
-        <v>1.324305437418668</v>
+        <v>1.300380921858753</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2682429689359115</v>
+        <v>0.265449798207942</v>
       </c>
       <c r="H60" t="n">
-        <v>1.124652120281424</v>
+        <v>1.117108302260239</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2481785700559052</v>
+        <v>0.2474722897053469</v>
       </c>
       <c r="J60" t="n">
-        <v>1.124652120281424</v>
+        <v>1.117108302260239</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2813084500111646</v>
+        <v>0.2802560377521842</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.161219312118107</v>
+        <v>1.153728996352392</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2989714586633458</v>
+        <v>0.2971013486461064</v>
       </c>
       <c r="D61" t="n">
-        <v>1.365911471774934</v>
+        <v>1.342156633630336</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2556668883984551</v>
+        <v>0.2617696933873052</v>
       </c>
       <c r="F61" t="n">
-        <v>1.365911471774934</v>
+        <v>1.342156633630336</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2729569645840744</v>
+        <v>0.270281724296827</v>
       </c>
       <c r="H61" t="n">
-        <v>1.161219312118107</v>
+        <v>1.153728996352392</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2543514809553526</v>
+        <v>0.2537171777027896</v>
       </c>
       <c r="J61" t="n">
-        <v>1.161219312118107</v>
+        <v>1.153728996352392</v>
       </c>
       <c r="K61" t="n">
-        <v>0.286274598914797</v>
+        <v>0.2852608079099898</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.197786503954791</v>
+        <v>1.190349690444544</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3077669390052135</v>
+        <v>0.3060114277904649</v>
       </c>
       <c r="D62" t="n">
-        <v>1.407517506131198</v>
+        <v>1.383932345401919</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2613892597892812</v>
+        <v>0.2677053230174451</v>
       </c>
       <c r="F62" t="n">
-        <v>1.407517506131198</v>
+        <v>1.383932345401919</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2774441515792219</v>
+        <v>0.2749345566532979</v>
       </c>
       <c r="H62" t="n">
-        <v>1.197786503954791</v>
+        <v>1.190349690444544</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2602974203488215</v>
+        <v>0.2598768172741964</v>
       </c>
       <c r="J62" t="n">
-        <v>1.197786503954791</v>
+        <v>1.190349690444544</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2910317873725797</v>
+        <v>0.2900813489740606</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.234353695791473</v>
+        <v>1.226970384536697</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3159419432566566</v>
+        <v>0.3143475890004228</v>
       </c>
       <c r="D63" t="n">
-        <v>1.449123540487464</v>
+        <v>1.425708057173503</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2668630035473192</v>
+        <v>0.2734785556030929</v>
       </c>
       <c r="F63" t="n">
-        <v>1.449123540487464</v>
+        <v>1.425708057173503</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2816608561493784</v>
+        <v>0.2793186684677986</v>
       </c>
       <c r="H63" t="n">
-        <v>1.234353695791473</v>
+        <v>1.226970384536697</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2659563844739046</v>
+        <v>0.2659073312677659</v>
       </c>
       <c r="J63" t="n">
-        <v>1.234353695791473</v>
+        <v>1.226970384536697</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2955617192630871</v>
+        <v>0.2946756872077281</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.270920887628157</v>
+        <v>1.263591078628849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3236708780541067</v>
+        <v>0.3221541049684162</v>
       </c>
       <c r="D64" t="n">
-        <v>1.490729574843728</v>
+        <v>1.467483768945087</v>
       </c>
       <c r="E64" t="n">
-        <v>0.272104956025879</v>
+        <v>0.2790895524392629</v>
       </c>
       <c r="F64" t="n">
-        <v>1.490729574843728</v>
+        <v>1.467483768945087</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2855102781966596</v>
+        <v>0.2833916583834208</v>
       </c>
       <c r="H64" t="n">
-        <v>1.270920887628157</v>
+        <v>1.263591078628849</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2713148965110662</v>
+        <v>0.2717635008176951</v>
       </c>
       <c r="J64" t="n">
-        <v>1.270920887628157</v>
+        <v>1.263591078628849</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2998420027750083</v>
+        <v>0.299011086847179</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.30748807946484</v>
+        <v>1.300211772721002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3310912479201129</v>
+        <v>0.3296284657430602</v>
       </c>
       <c r="D65" t="n">
-        <v>1.532335609199994</v>
+        <v>1.50925948071667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.277151440535322</v>
+        <v>0.2845487735117142</v>
       </c>
       <c r="F65" t="n">
-        <v>1.532335609199994</v>
+        <v>1.50925948071667</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2889961356351945</v>
+        <v>0.2871170090575271</v>
       </c>
       <c r="H65" t="n">
-        <v>1.30748807946484</v>
+        <v>1.300211772721002</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2763660371493311</v>
+        <v>0.2774102877219009</v>
       </c>
       <c r="J65" t="n">
-        <v>1.30748807946484</v>
+        <v>1.300211772721002</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3038433862947676</v>
+        <v>0.3030700955363053</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.344055271301523</v>
+        <v>1.336832466813154</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3382782159790829</v>
+        <v>0.3368762229899517</v>
       </c>
       <c r="D66" t="n">
-        <v>1.573941643556258</v>
+        <v>1.551035192488254</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2820436736443402</v>
+        <v>0.2898582716460623</v>
       </c>
       <c r="F66" t="n">
-        <v>1.573941643556258</v>
+        <v>1.551035192488254</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2920717551459125</v>
+        <v>0.290427138866704</v>
       </c>
       <c r="H66" t="n">
-        <v>1.344055271301523</v>
+        <v>1.336832466813154</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2811130910457346</v>
+        <v>0.2828150917258014</v>
       </c>
       <c r="J66" t="n">
-        <v>1.344055271301523</v>
+        <v>1.336832466813154</v>
       </c>
       <c r="K66" t="n">
-        <v>0.307530238316116</v>
+        <v>0.3068273026945006</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.380622463138206</v>
+        <v>1.373453160905307</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3453399414757984</v>
+        <v>0.3439627319280494</v>
       </c>
       <c r="D67" t="n">
-        <v>1.615547677912523</v>
+        <v>1.592810904259837</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2867907514874135</v>
+        <v>0.2950288153610843</v>
       </c>
       <c r="F67" t="n">
-        <v>1.615547677912523</v>
+        <v>1.592810904259837</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2947284956117313</v>
+        <v>0.2933257023630986</v>
       </c>
       <c r="H67" t="n">
-        <v>1.380622463138206</v>
+        <v>1.373453160905307</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2855454463234194</v>
+        <v>0.2879607807092087</v>
       </c>
       <c r="J67" t="n">
-        <v>1.380622463138206</v>
+        <v>1.373453160905307</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3108686681501019</v>
+        <v>0.3102463118169733</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.417189654974889</v>
+        <v>1.410073854997459</v>
       </c>
       <c r="C68" t="n">
-        <v>0.352337443728709</v>
+        <v>0.3509781507618647</v>
       </c>
       <c r="D68" t="n">
-        <v>1.657153712268788</v>
+        <v>1.634586616031421</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2915001039757468</v>
+        <v>0.3000750681293413</v>
       </c>
       <c r="F68" t="n">
-        <v>1.657153712268788</v>
+        <v>1.634586616031421</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2969699432484604</v>
+        <v>0.295794364722687</v>
       </c>
       <c r="H68" t="n">
-        <v>1.417189654974889</v>
+        <v>1.410073854997459</v>
       </c>
       <c r="I68" t="n">
-        <v>0.289723806754838</v>
+        <v>0.2928499794200385</v>
       </c>
       <c r="J68" t="n">
-        <v>1.417189654974889</v>
+        <v>1.410073854997459</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3138520703178739</v>
+        <v>0.3133028031058607</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.453756846811573</v>
+        <v>1.446694549089612</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3592937925500153</v>
+        <v>0.3579544811150679</v>
       </c>
       <c r="D69" t="n">
-        <v>1.698759746625053</v>
+        <v>1.676362327803004</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2961195437015432</v>
+        <v>0.3049890787868438</v>
       </c>
       <c r="F69" t="n">
-        <v>1.698759746625053</v>
+        <v>1.676362327803004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2988093731882698</v>
+        <v>0.2978632000751992</v>
       </c>
       <c r="H69" t="n">
-        <v>1.453756846811573</v>
+        <v>1.446694549089612</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2936812705682215</v>
+        <v>0.2974572953579806</v>
       </c>
       <c r="J69" t="n">
-        <v>1.453756846811573</v>
+        <v>1.446694549089612</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3164729312983939</v>
+        <v>0.3159918498080665</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.490324038648255</v>
+        <v>1.483315243181764</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3662116782282104</v>
+        <v>0.3648897247263067</v>
       </c>
       <c r="D70" t="n">
-        <v>1.740365780981318</v>
+        <v>1.718138039574588</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3007715867368794</v>
+        <v>0.3097988046414744</v>
       </c>
       <c r="F70" t="n">
-        <v>1.740365780981318</v>
+        <v>1.718138039574588</v>
       </c>
       <c r="G70" t="n">
-        <v>0.300302300460022</v>
+        <v>0.2995472768610117</v>
       </c>
       <c r="H70" t="n">
-        <v>1.490324038648255</v>
+        <v>1.483315243181764</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2974644342710454</v>
+        <v>0.3018083004722077</v>
       </c>
       <c r="J70" t="n">
-        <v>1.490324038648255</v>
+        <v>1.483315243181764</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3187060165230746</v>
+        <v>0.3183107184219843</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.526891230484939</v>
+        <v>1.519935937273917</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3730658370706166</v>
+        <v>0.371765709712147</v>
       </c>
       <c r="D71" t="n">
-        <v>1.781971815337583</v>
+        <v>1.759913751346171</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3054327455753533</v>
+        <v>0.3144991828854578</v>
       </c>
       <c r="F71" t="n">
-        <v>1.781971815337583</v>
+        <v>1.759913751346171</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3014745671716817</v>
+        <v>0.3008906791610723</v>
       </c>
       <c r="H71" t="n">
-        <v>1.526891230484939</v>
+        <v>1.519935937273917</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3011572674604667</v>
+        <v>0.3059416825198065</v>
       </c>
       <c r="J71" t="n">
-        <v>1.526891230484939</v>
+        <v>1.519935937273917</v>
       </c>
       <c r="K71" t="n">
-        <v>0.320560358048207</v>
+        <v>0.3202388474085693</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.563458422321622</v>
+        <v>1.55655663136607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.379781031762153</v>
+        <v>0.3785359952520471</v>
       </c>
       <c r="D72" t="n">
-        <v>1.823577849693848</v>
+        <v>1.801689463117755</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3101437701864088</v>
+        <v>0.319093099544042</v>
       </c>
       <c r="F72" t="n">
-        <v>1.823577849693848</v>
+        <v>1.801689463117755</v>
       </c>
       <c r="G72" t="n">
-        <v>0.302394546571579</v>
+        <v>0.3019430450257433</v>
       </c>
       <c r="H72" t="n">
-        <v>1.563458422321622</v>
+        <v>1.55655663136607</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3047920504149514</v>
+        <v>0.3098602306505994</v>
       </c>
       <c r="J72" t="n">
-        <v>1.563458422321622</v>
+        <v>1.55655663136607</v>
       </c>
       <c r="K72" t="n">
-        <v>0.3220555545586946</v>
+        <v>0.3217965664321048</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.600025614158305</v>
+        <v>1.593177325458222</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3862893662673602</v>
+        <v>0.3850905438358695</v>
       </c>
       <c r="D73" t="n">
-        <v>1.865183884050113</v>
+        <v>1.843465174889338</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3148768435157435</v>
+        <v>0.3235833251625901</v>
       </c>
       <c r="F73" t="n">
-        <v>1.865183884050113</v>
+        <v>1.843465174889338</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3031178886022028</v>
+        <v>0.3027503600088595</v>
       </c>
       <c r="H73" t="n">
-        <v>1.600025614158305</v>
+        <v>1.593177325458222</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3084397035594271</v>
+        <v>0.3135908376764401</v>
       </c>
       <c r="J73" t="n">
-        <v>1.600025614158305</v>
+        <v>1.593177325458222</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3232108925021827</v>
+        <v>0.3230085472451775</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.636592805994988</v>
+        <v>1.629798019550375</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3925110189706194</v>
+        <v>0.3913690003720285</v>
       </c>
       <c r="D74" t="n">
-        <v>1.906789918406378</v>
+        <v>1.885240886660922</v>
       </c>
       <c r="E74" t="n">
-        <v>0.319658875601509</v>
+        <v>0.3279615178805436</v>
       </c>
       <c r="F74" t="n">
-        <v>1.906789918406378</v>
+        <v>1.885240886660922</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3036729784685036</v>
+        <v>0.3033924781375801</v>
       </c>
       <c r="H74" t="n">
-        <v>1.636592805994988</v>
+        <v>1.629798019550375</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3121800126662495</v>
+        <v>0.3171870714469108</v>
       </c>
       <c r="J74" t="n">
-        <v>1.636592805994988</v>
+        <v>1.629798019550375</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3240244633291404</v>
+        <v>0.3239002556572186</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.673159997831672</v>
+        <v>1.666418713642527</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3982700260155161</v>
+        <v>0.3972678123254069</v>
       </c>
       <c r="D75" t="n">
-        <v>1.948395952762643</v>
+        <v>1.927016598432505</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3244040421324977</v>
+        <v>0.3321901027922578</v>
       </c>
       <c r="F75" t="n">
-        <v>1.948395952762643</v>
+        <v>1.927016598432505</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3041414169919342</v>
+        <v>0.3039158695553953</v>
       </c>
       <c r="H75" t="n">
-        <v>1.673159997831672</v>
+        <v>1.666418713642527</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3159940709038652</v>
+        <v>0.3206653080915322</v>
       </c>
       <c r="J75" t="n">
-        <v>1.673159997831672</v>
+        <v>1.666418713642527</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3245442864341701</v>
+        <v>0.3244733589952855</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.709727189668355</v>
+        <v>1.70303940773468</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4034954095824734</v>
+        <v>0.402585134548151</v>
       </c>
       <c r="D76" t="n">
-        <v>1.990001987118908</v>
+        <v>1.968792310204089</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3291137133509799</v>
+        <v>0.3362767031888645</v>
       </c>
       <c r="F76" t="n">
-        <v>1.990001987118908</v>
+        <v>1.968792310204089</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3045630609338418</v>
+        <v>0.3043555025135204</v>
       </c>
       <c r="H76" t="n">
-        <v>1.709727189668355</v>
+        <v>1.70303940773468</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3199373555774793</v>
+        <v>0.3240452689116205</v>
       </c>
       <c r="J76" t="n">
-        <v>1.709727189668355</v>
+        <v>1.70303940773468</v>
       </c>
       <c r="K76" t="n">
-        <v>0.324818158284252</v>
+        <v>0.3247844670908109</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.746294381505038</v>
+        <v>1.739660101826833</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4080962812962644</v>
+        <v>0.4072892453685538</v>
       </c>
       <c r="D77" t="n">
-        <v>2.031608021475173</v>
+        <v>2.010568021975672</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3337017915585006</v>
+        <v>0.3401486420388762</v>
       </c>
       <c r="F77" t="n">
-        <v>2.031608021475173</v>
+        <v>2.010568021975672</v>
       </c>
       <c r="G77" t="n">
-        <v>0.304953786188118</v>
+        <v>0.3047583503288449</v>
       </c>
       <c r="H77" t="n">
-        <v>1.746294381505038</v>
+        <v>1.739660101826833</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3240156771644109</v>
+        <v>0.3273712456187907</v>
       </c>
       <c r="J77" t="n">
-        <v>1.746294381505038</v>
+        <v>1.739660101826833</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3248837357651171</v>
+        <v>0.3248817253569724</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.782861573341721</v>
+        <v>1.776280795918985</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4118283506721376</v>
+        <v>0.411253612767892</v>
       </c>
       <c r="D78" t="n">
-        <v>2.073214055831438</v>
+        <v>2.052343733747255</v>
       </c>
       <c r="E78" t="n">
-        <v>0.338108904466603</v>
+        <v>0.3437699143012591</v>
       </c>
       <c r="F78" t="n">
-        <v>2.073214055831438</v>
+        <v>2.052343733747255</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3053488057134703</v>
+        <v>0.3051528971241126</v>
       </c>
       <c r="H78" t="n">
-        <v>1.782861573341721</v>
+        <v>1.776280795918985</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3281972893173596</v>
+        <v>0.3306302842486856</v>
       </c>
       <c r="J78" t="n">
-        <v>1.782861573341721</v>
+        <v>1.776280795918985</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3247710288867517</v>
+        <v>0.3248024033054714</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.819428765178404</v>
+        <v>1.812901490011138</v>
       </c>
       <c r="C79" t="n">
-        <v>0.414688153718247</v>
+        <v>0.4142455591578256</v>
       </c>
       <c r="D79" t="n">
-        <v>2.114820090187703</v>
+        <v>2.09411944551884</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3422923383258336</v>
+        <v>0.3471213472698071</v>
       </c>
       <c r="F79" t="n">
-        <v>2.114820090187703</v>
+        <v>2.09411944551884</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3057532002416042</v>
+        <v>0.3055444537556002</v>
       </c>
       <c r="H79" t="n">
-        <v>1.819428765178404</v>
+        <v>1.812901490011138</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3324493301112131</v>
+        <v>0.3338184048314865</v>
       </c>
       <c r="J79" t="n">
-        <v>1.819428765178404</v>
+        <v>1.812901490011138</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3245175545192194</v>
+        <v>0.3245778681930112</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.855995957015087</v>
+        <v>1.84952218410329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416620486497719</v>
+        <v>0.4163161630417313</v>
       </c>
       <c r="D80" t="n">
-        <v>2.156426124543968</v>
+        <v>2.135895157290423</v>
       </c>
       <c r="E80" t="n">
-        <v>0.346129141075994</v>
+        <v>0.3500814316583714</v>
       </c>
       <c r="F80" t="n">
-        <v>2.156426124543968</v>
+        <v>2.135895157290423</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3061484934731368</v>
+        <v>0.3059512863850364</v>
       </c>
       <c r="H80" t="n">
-        <v>1.855995957015087</v>
+        <v>1.84952218410329</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3367315123425969</v>
+        <v>0.3369545626619796</v>
       </c>
       <c r="J80" t="n">
-        <v>1.855995957015087</v>
+        <v>1.84952218410329</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3241833760686315</v>
+        <v>0.3242460519327026</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.89256314885177</v>
+        <v>1.886142878195443</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4173837365359783</v>
+        <v>0.4173652051200883</v>
       </c>
       <c r="D81" t="n">
-        <v>2.198032158900233</v>
+        <v>2.177670869062006</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3496166003695658</v>
+        <v>0.3526417960171154</v>
       </c>
       <c r="F81" t="n">
-        <v>2.198032158900233</v>
+        <v>2.177670869062006</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3065393966208023</v>
+        <v>0.3063509322950909</v>
       </c>
       <c r="H81" t="n">
-        <v>1.89256314885177</v>
+        <v>1.886142878195443</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3409999695344889</v>
+        <v>0.3400304430570176</v>
       </c>
       <c r="J81" t="n">
-        <v>1.89256314885177</v>
+        <v>1.886142878195443</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3237967672372795</v>
+        <v>0.3238633806863111</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.929130340688454</v>
+        <v>1.922763572287596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4170969961984867</v>
+        <v>0.4172222727043284</v>
       </c>
       <c r="D82" t="n">
-        <v>2.239638193256498</v>
+        <v>2.21944658083359</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3526527078356803</v>
+        <v>0.354738837683348</v>
       </c>
       <c r="F82" t="n">
-        <v>2.239638193256498</v>
+        <v>2.21944658083359</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3068866853265194</v>
+        <v>0.3067303777725216</v>
       </c>
       <c r="H82" t="n">
-        <v>1.929130340688454</v>
+        <v>1.922763572287596</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3451722610270019</v>
+        <v>0.3430230349003818</v>
       </c>
       <c r="J82" t="n">
-        <v>1.929130340688454</v>
+        <v>1.922763572287596</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3233828332852612</v>
+        <v>0.3234523751540014</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.965697532525137</v>
+        <v>1.959384266379748</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4157834067926045</v>
+        <v>0.4160486212568148</v>
       </c>
       <c r="D83" t="n">
-        <v>2.281244227612762</v>
+        <v>2.261222292605173</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3552215122540138</v>
+        <v>0.3562955119687826</v>
       </c>
       <c r="F83" t="n">
-        <v>2.281244227612762</v>
+        <v>2.261222292605173</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3071759514200944</v>
+        <v>0.3070515976850148</v>
       </c>
       <c r="H83" t="n">
-        <v>1.965697532525137</v>
+        <v>1.959384266379748</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3491941765098901</v>
+        <v>0.3458952294056466</v>
       </c>
       <c r="J83" t="n">
-        <v>1.965697532525137</v>
+        <v>1.959384266379748</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3229561849238762</v>
+        <v>0.3230334121557526</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.00226472436182</v>
+        <v>1.996004960471901</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4132977418266234</v>
+        <v>0.4138248516714733</v>
       </c>
       <c r="D84" t="n">
-        <v>2.322850261969028</v>
+        <v>2.302998004376757</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3572733160792001</v>
+        <v>0.3573053968211684</v>
       </c>
       <c r="F84" t="n">
-        <v>2.322850261969028</v>
+        <v>2.302998004376757</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3073610058899415</v>
+        <v>0.3072814639714041</v>
       </c>
       <c r="H84" t="n">
-        <v>2.00226472436182</v>
+        <v>1.996004960471901</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3529955478460838</v>
+        <v>0.3486460405899665</v>
       </c>
       <c r="J84" t="n">
-        <v>2.00226472436182</v>
+        <v>1.996004960471901</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3225416464744384</v>
+        <v>0.3226154351222405</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.038831916198503</v>
+        <v>2.032625654564053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4098825549779338</v>
+        <v>0.4105231179445458</v>
       </c>
       <c r="D85" t="n">
-        <v>2.364456296325293</v>
+        <v>2.344773716148341</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3588052039516858</v>
+        <v>0.3577023781827922</v>
       </c>
       <c r="F85" t="n">
-        <v>2.364456296325293</v>
+        <v>2.344773716148341</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3073916324978501</v>
+        <v>0.3073937565344843</v>
       </c>
       <c r="H85" t="n">
-        <v>2.038831916198503</v>
+        <v>2.032625654564053</v>
       </c>
       <c r="I85" t="n">
-        <v>0.356482870679623</v>
+        <v>0.3512201224927632</v>
       </c>
       <c r="J85" t="n">
-        <v>2.038831916198503</v>
+        <v>2.032625654564053</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3221522068191897</v>
+        <v>0.3222172822753813</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.075399108035186</v>
+        <v>2.069246348656206</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405648530710439</v>
+        <v>0.4063887736112072</v>
       </c>
       <c r="D86" t="n">
-        <v>2.406062330681558</v>
+        <v>2.386549427919924</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3597753782682068</v>
+        <v>0.3575140586834112</v>
       </c>
       <c r="F86" t="n">
-        <v>2.406062330681558</v>
+        <v>2.386549427919924</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3072419407749005</v>
+        <v>0.3073390195846717</v>
       </c>
       <c r="H86" t="n">
-        <v>2.075399108035186</v>
+        <v>2.069246348656206</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3596449318743665</v>
+        <v>0.3535913160944382</v>
       </c>
       <c r="J86" t="n">
-        <v>2.075399108035186</v>
+        <v>2.069246348656206</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3217844476543155</v>
+        <v>0.3218426480731069</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.111966299871869</v>
+        <v>2.105867042748358</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4006031410506756</v>
+        <v>0.4015034450250095</v>
       </c>
       <c r="D87" t="n">
-        <v>2.447668365037822</v>
+        <v>2.428325139691507</v>
       </c>
       <c r="E87" t="n">
-        <v>0.360242809783003</v>
+        <v>0.3566965989589106</v>
       </c>
       <c r="F87" t="n">
-        <v>2.447668365037822</v>
+        <v>2.428325139691507</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3068639524904955</v>
+        <v>0.3070656617947681</v>
       </c>
       <c r="H87" t="n">
-        <v>2.111966299871869</v>
+        <v>2.105867042748358</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3624163307287686</v>
+        <v>0.355736223379568</v>
       </c>
       <c r="J87" t="n">
-        <v>2.111966299871869</v>
+        <v>2.105867042748358</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3214249168823791</v>
+        <v>0.3214847315875208</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.148533491708553</v>
+        <v>2.14248773684051</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3950290993429912</v>
+        <v>0.3959808500151368</v>
       </c>
       <c r="D88" t="n">
-        <v>2.489274399394088</v>
+        <v>2.470100851463091</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3601666958678422</v>
+        <v>0.3553182046996783</v>
       </c>
       <c r="F88" t="n">
-        <v>2.489274399394088</v>
+        <v>2.470100851463091</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3062080993515223</v>
+        <v>0.3065514182910409</v>
       </c>
       <c r="H88" t="n">
-        <v>2.148533491708553</v>
+        <v>2.14248773684051</v>
       </c>
       <c r="I88" t="n">
-        <v>0.36473397509661</v>
+        <v>0.3576063498334652</v>
       </c>
       <c r="J88" t="n">
-        <v>2.148533491708553</v>
+        <v>2.14248773684051</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3210643807442969</v>
+        <v>0.3211246278390645</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.185100683545236</v>
+        <v>2.179108430932663</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3890779230083653</v>
+        <v>0.3900641439716649</v>
       </c>
       <c r="D89" t="n">
-        <v>2.530880433750353</v>
+        <v>2.511876563234675</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3596103432574587</v>
+        <v>0.3533653761625944</v>
       </c>
       <c r="F89" t="n">
-        <v>2.530880433750353</v>
+        <v>2.511876563234675</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3052645332019375</v>
+        <v>0.3057332813623252</v>
       </c>
       <c r="H89" t="n">
-        <v>2.185100683545236</v>
+        <v>2.179108430932663</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3666072763506666</v>
+        <v>0.3591758776913078</v>
       </c>
       <c r="J89" t="n">
-        <v>2.185100683545236</v>
+        <v>2.179108430932663</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3206857607694225</v>
+        <v>0.3207497335351872</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.221667875381919</v>
+        <v>2.215729125024816</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3828755821759411</v>
+        <v>0.3838922159983554</v>
       </c>
       <c r="D90" t="n">
-        <v>2.572486468106618</v>
+        <v>2.553652275006258</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3585970001419768</v>
+        <v>0.3509108231503355</v>
       </c>
       <c r="F90" t="n">
-        <v>2.572486468106618</v>
+        <v>2.553652275006258</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3039691962701584</v>
+        <v>0.304589641978691</v>
       </c>
       <c r="H90" t="n">
-        <v>2.221667875381919</v>
+        <v>2.215729125024816</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3679728984805677</v>
+        <v>0.3604276885959318</v>
       </c>
       <c r="J90" t="n">
-        <v>2.221667875381919</v>
+        <v>2.215729125024816</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3202609447160263</v>
+        <v>0.3203367306773492</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.258235067218602</v>
+        <v>2.252349819116969</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3766195657692597</v>
+        <v>0.3776258185553934</v>
       </c>
       <c r="D91" t="n">
-        <v>2.614092502462882</v>
+        <v>2.595427986777842</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3571645657817473</v>
+        <v>0.3480107191235728</v>
       </c>
       <c r="F91" t="n">
-        <v>2.614092502462882</v>
+        <v>2.595427986777842</v>
       </c>
       <c r="G91" t="n">
-        <v>0.302304058689471</v>
+        <v>0.303106734733976</v>
       </c>
       <c r="H91" t="n">
-        <v>2.258235067218602</v>
+        <v>2.252349819116969</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3688449583856045</v>
+        <v>0.3612878070758899</v>
       </c>
       <c r="J91" t="n">
-        <v>2.258235067218602</v>
+        <v>2.252349819116969</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3197704395540378</v>
+        <v>0.319856866969878</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.294802259055285</v>
+        <v>2.28897051320912</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3704282417362724</v>
+        <v>0.3714120392080821</v>
       </c>
       <c r="D92" t="n">
-        <v>2.655698536819147</v>
+        <v>2.637203698549425</v>
       </c>
       <c r="E92" t="n">
-        <v>0.355338758820014</v>
+        <v>0.3447105456272522</v>
       </c>
       <c r="F92" t="n">
-        <v>2.655698536819147</v>
+        <v>2.637203698549425</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3002710032878744</v>
+        <v>0.3012229013358522</v>
       </c>
       <c r="H92" t="n">
-        <v>2.294802259055285</v>
+        <v>2.28897051320912</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3692526363695676</v>
+        <v>0.3617556112477723</v>
       </c>
       <c r="J92" t="n">
-        <v>2.294802259055285</v>
+        <v>2.28897051320912</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3191937249169005</v>
+        <v>0.319290456260447</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.331369450891968</v>
+        <v>2.325591207301273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364446140598571</v>
+        <v>0.3653691196715286</v>
       </c>
       <c r="D93" t="n">
-        <v>2.697304571175413</v>
+        <v>2.678979410321008</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3531589413746407</v>
+        <v>0.3410831751823464</v>
       </c>
       <c r="F93" t="n">
-        <v>2.697304571175413</v>
+        <v>2.678979410321008</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2978328226630139</v>
+        <v>0.2989474347747095</v>
       </c>
       <c r="H93" t="n">
-        <v>2.331369450891968</v>
+        <v>2.325591207301273</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3691753360852827</v>
+        <v>0.3618201091206677</v>
       </c>
       <c r="J93" t="n">
-        <v>2.331369450891968</v>
+        <v>2.325591207301273</v>
       </c>
       <c r="K93" t="n">
-        <v>0.318500783155298</v>
+        <v>0.3186178127008242</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.367936642728651</v>
+        <v>2.362211901393426</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3587192073376405</v>
+        <v>0.3595984480362608</v>
       </c>
       <c r="D94" t="n">
-        <v>2.738910605531678</v>
+        <v>2.720755122092592</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3506802456959915</v>
+        <v>0.3371751293997901</v>
       </c>
       <c r="F94" t="n">
-        <v>2.738910605531678</v>
+        <v>2.720755122092592</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2949855483926318</v>
+        <v>0.2962735387128164</v>
       </c>
       <c r="H94" t="n">
-        <v>2.367936642728651</v>
+        <v>2.362211901393426</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3686285695410296</v>
+        <v>0.3614237235634006</v>
       </c>
       <c r="J94" t="n">
-        <v>2.367936642728651</v>
+        <v>2.362211901393426</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3176628368257345</v>
+        <v>0.3178057668341016</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.404503834565335</v>
+        <v>2.398832595485579</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3532941364651574</v>
+        <v>0.3541237599481664</v>
       </c>
       <c r="D95" t="n">
-        <v>2.780516639887942</v>
+        <v>2.762530833864176</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3478868959348949</v>
+        <v>0.3330403828509441</v>
       </c>
       <c r="F95" t="n">
-        <v>2.780516639887942</v>
+        <v>2.762530833864176</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2917391788435146</v>
+        <v>0.2931989055887887</v>
       </c>
       <c r="H95" t="n">
-        <v>2.404503834565335</v>
+        <v>2.398832595485579</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3676661358360246</v>
+        <v>0.3605925462819344</v>
       </c>
       <c r="J95" t="n">
-        <v>2.404503834565335</v>
+        <v>2.398832595485579</v>
       </c>
       <c r="K95" t="n">
-        <v>0.316659378404155</v>
+        <v>0.3168299890583462</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.441071026402018</v>
+        <v>2.435453289577731</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3482543261055065</v>
+        <v>0.3489989377496314</v>
       </c>
       <c r="D96" t="n">
-        <v>2.822122674244207</v>
+        <v>2.804306545635759</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3448369184268666</v>
+        <v>0.3286929851975409</v>
       </c>
       <c r="F96" t="n">
-        <v>2.822122674244207</v>
+        <v>2.804306545635759</v>
       </c>
       <c r="G96" t="n">
-        <v>0.2881169933859135</v>
+        <v>0.2897262380520333</v>
       </c>
       <c r="H96" t="n">
-        <v>2.441071026402018</v>
+        <v>2.435453289577731</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3663161385964679</v>
+        <v>0.3592896413799517</v>
       </c>
       <c r="J96" t="n">
-        <v>2.441071026402018</v>
+        <v>2.435453289577731</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3154842337462219</v>
+        <v>0.3156737709495381</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.477638218238701</v>
+        <v>2.472073983669883</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3435397941425859</v>
+        <v>0.3442382516457785</v>
       </c>
       <c r="D97" t="n">
-        <v>2.863728708600473</v>
+        <v>2.846082257407343</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3414666549327736</v>
+        <v>0.3241655599090884</v>
       </c>
       <c r="F97" t="n">
-        <v>2.863728708600473</v>
+        <v>2.846082257407343</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2841529895286537</v>
+        <v>0.2858644693408872</v>
       </c>
       <c r="H97" t="n">
-        <v>2.477638218238701</v>
+        <v>2.472073983669883</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3646076959569928</v>
+        <v>0.3575228438444522</v>
       </c>
       <c r="J97" t="n">
-        <v>2.477638218238701</v>
+        <v>2.472073983669883</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3141104237266498</v>
+        <v>0.3143322396564739</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.514205410075384</v>
+        <v>2.508694677762036</v>
       </c>
       <c r="C98" t="n">
-        <v>0.339142748018614</v>
+        <v>0.3397929631773827</v>
       </c>
       <c r="D98" t="n">
-        <v>2.905334742956737</v>
+        <v>2.887857969178926</v>
       </c>
       <c r="E98" t="n">
-        <v>0.337792508351853</v>
+        <v>0.3194489704384008</v>
       </c>
       <c r="F98" t="n">
-        <v>2.905334742956737</v>
+        <v>2.887857969178926</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2798208555152656</v>
+        <v>0.2816720347689371</v>
       </c>
       <c r="H98" t="n">
-        <v>2.514205410075384</v>
+        <v>2.508694677762036</v>
       </c>
       <c r="I98" t="n">
-        <v>0.362567526900502</v>
+        <v>0.355330518464889</v>
       </c>
       <c r="J98" t="n">
-        <v>2.514205410075384</v>
+        <v>2.508694677762036</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3125285553950849</v>
+        <v>0.3127779916155979</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.550772601912067</v>
+        <v>2.545315371854189</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3350871687648661</v>
+        <v>0.3356692074642884</v>
       </c>
       <c r="D99" t="n">
-        <v>2.946940777313002</v>
+        <v>2.929633680950509</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3337712129613871</v>
+        <v>0.3144990315959437</v>
       </c>
       <c r="F99" t="n">
-        <v>2.946940777313002</v>
+        <v>2.929633680950509</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2752037077843831</v>
+        <v>0.2771747519462488</v>
       </c>
       <c r="H99" t="n">
-        <v>2.550772601912067</v>
+        <v>2.545315371854189</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3602639381549874</v>
+        <v>0.3527059799107906</v>
       </c>
       <c r="J99" t="n">
-        <v>2.550772601912067</v>
+        <v>2.545315371854189</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3107246754995028</v>
+        <v>0.3110077631502137</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.58733979374875</v>
+        <v>2.581936065946342</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3312889467003123</v>
+        <v>0.3318365294834419</v>
       </c>
       <c r="D100" t="n">
-        <v>2.988546811669267</v>
+        <v>2.971409392722093</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3293626997265527</v>
+        <v>0.3093082843917903</v>
       </c>
       <c r="F100" t="n">
-        <v>2.988546811669267</v>
+        <v>2.971409392722093</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2703305038247616</v>
+        <v>0.2723720098879703</v>
       </c>
       <c r="H100" t="n">
-        <v>2.58733979374875</v>
+        <v>2.581936065946342</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3576866458126293</v>
+        <v>0.349663014405696</v>
       </c>
       <c r="J100" t="n">
-        <v>2.58733979374875</v>
+        <v>2.581936065946342</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3086959695203981</v>
+        <v>0.3090072620354714</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.623906985585434</v>
+        <v>2.618556760038494</v>
       </c>
       <c r="C101" t="n">
-        <v>0.327723035905513</v>
+        <v>0.3282354380989704</v>
       </c>
       <c r="D101" t="n">
-        <v>3.030152846025532</v>
+        <v>3.013185104493677</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3244982100837011</v>
+        <v>0.3037828071623366</v>
       </c>
       <c r="F101" t="n">
-        <v>3.030152846025532</v>
+        <v>3.013185104493677</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2652323317310065</v>
+        <v>0.2673384884987896</v>
       </c>
       <c r="H101" t="n">
-        <v>2.623906985585434</v>
+        <v>2.618556760038494</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3548276119664809</v>
+        <v>0.3462496746992819</v>
       </c>
       <c r="J101" t="n">
-        <v>2.623906985585434</v>
+        <v>2.618556760038494</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3064325114254269</v>
+        <v>0.3067750710867165</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.660474177422117</v>
+        <v>2.655177454130646</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3243822444958093</v>
+        <v>0.3248524895009255</v>
       </c>
       <c r="D102" t="n">
-        <v>3.071758880381797</v>
+        <v>3.05496081626526</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3190854654173884</v>
+        <v>0.2978936001209468</v>
       </c>
       <c r="F102" t="n">
-        <v>3.071758880381797</v>
+        <v>3.05496081626526</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2599352883097754</v>
+        <v>0.2621002348706726</v>
       </c>
       <c r="H102" t="n">
-        <v>2.660474177422117</v>
+        <v>2.655177454130646</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3517370091858609</v>
+        <v>0.3424799053173201</v>
       </c>
       <c r="J102" t="n">
-        <v>2.660474177422117</v>
+        <v>2.655177454130646</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3039294766842797</v>
+        <v>0.3043040775781591</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6970413692588</v>
+        <v>2.691798148222799</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3211921065848476</v>
+        <v>0.3216424089361268</v>
       </c>
       <c r="D103" t="n">
-        <v>3.113364914738062</v>
+        <v>3.096736528036844</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3131018997496301</v>
+        <v>0.2915340347672538</v>
       </c>
       <c r="F103" t="n">
-        <v>3.113364914738062</v>
+        <v>3.096736528036844</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2544766978516409</v>
+        <v>0.2566878073544808</v>
       </c>
       <c r="H103" t="n">
-        <v>2.6970413692588</v>
+        <v>2.691798148222799</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3484017346902429</v>
+        <v>0.3383880894245093</v>
       </c>
       <c r="J103" t="n">
-        <v>2.6970413692588</v>
+        <v>2.691798148222799</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3011813970336272</v>
+        <v>0.3015918913787946</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.733608561095483</v>
+        <v>2.728418842314952</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3181140556957474</v>
+        <v>0.318547142485777</v>
       </c>
       <c r="D104" t="n">
-        <v>3.154970949094327</v>
+        <v>3.138512239808427</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3064636467352244</v>
+        <v>0.2846820829375449</v>
       </c>
       <c r="F104" t="n">
-        <v>3.154970949094327</v>
+        <v>3.138512239808427</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2488810044532699</v>
+        <v>0.2511140404058348</v>
       </c>
       <c r="H104" t="n">
-        <v>2.733608561095483</v>
+        <v>2.728418842314952</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3447854506644239</v>
+        <v>0.3339998806896989</v>
       </c>
       <c r="J104" t="n">
-        <v>2.733608561095483</v>
+        <v>2.728418842314952</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2981798254599164</v>
+        <v>0.2986270347984357</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.770175752932166</v>
+        <v>2.765039536407104</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3150985169555386</v>
+        <v>0.3155213181753451</v>
       </c>
       <c r="D105" t="n">
-        <v>3.196576983450591</v>
+        <v>3.18028795158001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2991370851233683</v>
+        <v>0.2772396284339225</v>
       </c>
       <c r="F105" t="n">
-        <v>3.196576983450591</v>
+        <v>3.18028795158001</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2431434711186207</v>
+        <v>0.245411838866644</v>
       </c>
       <c r="H105" t="n">
-        <v>2.770175752932166</v>
+        <v>2.765039536407104</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3408800158955264</v>
+        <v>0.3293322100793506</v>
       </c>
       <c r="J105" t="n">
-        <v>2.770175752932166</v>
+        <v>2.765039536407104</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2949200068426783</v>
+        <v>0.2953980451556296</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.806742944768849</v>
+        <v>2.801660230499257</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3120693997024147</v>
+        <v>0.3124926904037952</v>
       </c>
       <c r="D106" t="n">
-        <v>3.238183017806857</v>
+        <v>3.222063663351594</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2910851954131879</v>
+        <v>0.2692345537674868</v>
       </c>
       <c r="F106" t="n">
-        <v>3.238183017806857</v>
+        <v>3.222063663351594</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2372769995488038</v>
+        <v>0.2395759710269018</v>
       </c>
       <c r="H106" t="n">
-        <v>2.806742944768849</v>
+        <v>2.801660230499257</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3366588263898093</v>
+        <v>0.3244066272933502</v>
       </c>
       <c r="J106" t="n">
-        <v>2.806742944768849</v>
+        <v>2.801660230499257</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2913939568478087</v>
+        <v>0.2919054721042253</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.843310136605532</v>
+        <v>2.838280924591409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3089523967434906</v>
+        <v>0.3093885464867388</v>
       </c>
       <c r="D107" t="n">
-        <v>3.279789052163122</v>
+        <v>3.263839375123178</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2823006990880934</v>
+        <v>0.2605801072999481</v>
       </c>
       <c r="F107" t="n">
-        <v>3.279789052163122</v>
+        <v>3.263839375123178</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2312735729427253</v>
+        <v>0.2335996148822868</v>
       </c>
       <c r="H107" t="n">
-        <v>2.843310136605532</v>
+        <v>2.838280924591409</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3320438111858774</v>
+        <v>0.3192199046122164</v>
       </c>
       <c r="J107" t="n">
-        <v>2.843310136605532</v>
+        <v>2.838280924591409</v>
       </c>
       <c r="K107" t="n">
-        <v>0.287591137790413</v>
+        <v>0.2881342778707809</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.879877328442216</v>
+        <v>2.874901618683562</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3056322151539793</v>
+        <v>0.3061022722008857</v>
       </c>
       <c r="D108" t="n">
-        <v>3.321395086519387</v>
+        <v>3.305615086894761</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2728008062875102</v>
+        <v>0.2513599227793422</v>
       </c>
       <c r="F108" t="n">
-        <v>3.321395086519387</v>
+        <v>3.305615086894761</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2251079758537402</v>
+        <v>0.227478570847407</v>
       </c>
       <c r="H108" t="n">
-        <v>2.879877328442216</v>
+        <v>2.874901618683562</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3270409839314583</v>
+        <v>0.3137568726528568</v>
       </c>
       <c r="J108" t="n">
-        <v>2.879877328442216</v>
+        <v>2.874901618683562</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2835025001147431</v>
+        <v>0.2840778097145751</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.916444520278899</v>
+        <v>2.911522312775714</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3020424504153054</v>
+        <v>0.3025407085323721</v>
       </c>
       <c r="D109" t="n">
-        <v>3.363001120875651</v>
+        <v>3.347390798666344</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2626217556609154</v>
+        <v>0.2415500065009251</v>
       </c>
       <c r="F109" t="n">
-        <v>3.363001120875651</v>
+        <v>3.347390798666344</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2187683389450186</v>
+        <v>0.2211766662902196</v>
       </c>
       <c r="H109" t="n">
-        <v>2.916444520278899</v>
+        <v>2.911522312775714</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3216129246053088</v>
+        <v>0.3080345233493486</v>
       </c>
       <c r="J109" t="n">
-        <v>2.916444520278899</v>
+        <v>2.911522312775714</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2791187785029421</v>
+        <v>0.2797240674324131</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.953011712115582</v>
+        <v>2.948143006867867</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2980810342662846</v>
+        <v>0.298632320392183</v>
       </c>
       <c r="D110" t="n">
-        <v>3.404607155231917</v>
+        <v>3.389166510437928</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2518561150312797</v>
+        <v>0.2312546035931983</v>
       </c>
       <c r="F110" t="n">
-        <v>3.404607155231917</v>
+        <v>3.389166510437928</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2122199920909225</v>
+        <v>0.2146809833706439</v>
       </c>
       <c r="H110" t="n">
-        <v>2.953011712115582</v>
+        <v>2.948143006867867</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3156865638887121</v>
+        <v>0.3020262946624696</v>
       </c>
       <c r="J110" t="n">
-        <v>2.953011712115582</v>
+        <v>2.948143006867867</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2744226072801868</v>
+        <v>0.2750637857478347</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.989578903952265</v>
+        <v>2.98476370096002</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2936023897732554</v>
+        <v>0.2942287321845194</v>
       </c>
       <c r="D111" t="n">
-        <v>3.446213189588182</v>
+        <v>3.430942222209511</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2405367101650292</v>
+        <v>0.2205390406016191</v>
       </c>
       <c r="F111" t="n">
-        <v>3.446213189588182</v>
+        <v>3.430942222209511</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2054406366665012</v>
+        <v>0.2079633228284495</v>
       </c>
       <c r="H111" t="n">
-        <v>2.989578903952265</v>
+        <v>2.98476370096002</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3092778382123907</v>
+        <v>0.2956865125383016</v>
       </c>
       <c r="J111" t="n">
-        <v>2.989578903952265</v>
+        <v>2.98476370096002</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2694020972200941</v>
+        <v>0.2700832245070219</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.026146095788948</v>
+        <v>3.021384395052173</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2886040806803014</v>
+        <v>0.2892801499329619</v>
       </c>
       <c r="D112" t="n">
-        <v>3.487819223944447</v>
+        <v>3.472717933981095</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2288258366748469</v>
+        <v>0.2094925507807028</v>
       </c>
       <c r="F112" t="n">
-        <v>3.487819223944447</v>
+        <v>3.472717933981095</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1984070966756208</v>
+        <v>0.2009996731747975</v>
       </c>
       <c r="H112" t="n">
-        <v>3.026146095788948</v>
+        <v>3.021384395052173</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3023422476430539</v>
+        <v>0.2890270610749286</v>
       </c>
       <c r="J112" t="n">
-        <v>3.026146095788948</v>
+        <v>3.021384395052173</v>
       </c>
       <c r="K112" t="n">
-        <v>0.2640474024650377</v>
+        <v>0.2647665399814021</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.062713287625631</v>
+        <v>3.058005089144324</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2830119453739265</v>
+        <v>0.2837679344426562</v>
       </c>
       <c r="D113" t="n">
-        <v>3.529425258300711</v>
+        <v>3.514493645752679</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2168122930740645</v>
+        <v>0.1982570025522606</v>
       </c>
       <c r="F113" t="n">
-        <v>3.529425258300711</v>
+        <v>3.514493645752679</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1911143434990004</v>
+        <v>0.193768266429337</v>
       </c>
       <c r="H113" t="n">
-        <v>3.062713287625631</v>
+        <v>3.058005089144324</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2948433592409554</v>
+        <v>0.2819964718378431</v>
       </c>
       <c r="J113" t="n">
-        <v>3.062713287625631</v>
+        <v>3.058005089144324</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2583645386599013</v>
+        <v>0.2591114228778178</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.099280479462315</v>
+        <v>3.094625783236477</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2767376289626158</v>
+        <v>0.277577832547931</v>
       </c>
       <c r="D114" t="n">
-        <v>3.571031292656976</v>
+        <v>3.556269357524262</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2046341622782201</v>
+        <v>0.1869225707965766</v>
       </c>
       <c r="F114" t="n">
-        <v>3.571031292656976</v>
+        <v>3.556269357524262</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1835469946203228</v>
+        <v>0.1862689883725062</v>
       </c>
       <c r="H114" t="n">
-        <v>3.099280479462315</v>
+        <v>3.094625783236477</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2868425973383349</v>
+        <v>0.2745564069987622</v>
       </c>
       <c r="J114" t="n">
-        <v>3.099280479462315</v>
+        <v>3.094625783236477</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2523501647868547</v>
+        <v>0.2531307555904661</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.135847671298998</v>
+        <v>3.13124647732863</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2698776348202367</v>
+        <v>0.2707661044560344</v>
       </c>
       <c r="D115" t="n">
-        <v>3.612637327013242</v>
+        <v>3.598045069295845</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1924124835786441</v>
+        <v>0.1756278608701788</v>
       </c>
       <c r="F115" t="n">
-        <v>3.612637327013242</v>
+        <v>3.598045069295845</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1757169201225948</v>
+        <v>0.1784982323788204</v>
       </c>
       <c r="H115" t="n">
-        <v>3.135847671298998</v>
+        <v>3.13124647732863</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2782928002447208</v>
+        <v>0.2667312280742848</v>
       </c>
       <c r="J115" t="n">
-        <v>3.135847671298998</v>
+        <v>3.13124647732863</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2460079101878624</v>
+        <v>0.2468178971376055</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.172414863135681</v>
+        <v>3.167867171420783</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2624361009958963</v>
+        <v>0.2633949190761227</v>
       </c>
       <c r="D116" t="n">
-        <v>3.654243361369507</v>
+        <v>3.639820781067429</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1803130608936039</v>
+        <v>0.1644665854682112</v>
       </c>
       <c r="F116" t="n">
-        <v>3.654243361369507</v>
+        <v>3.639820781067429</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1676467342776333</v>
+        <v>0.1704721919643511</v>
       </c>
       <c r="H116" t="n">
-        <v>3.172414863135681</v>
+        <v>3.167867171420783</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2692373581570172</v>
+        <v>0.2584793551614459</v>
       </c>
       <c r="J116" t="n">
-        <v>3.172414863135681</v>
+        <v>3.167867171420783</v>
       </c>
       <c r="K116" t="n">
-        <v>0.239328955175752</v>
+        <v>0.2401832617737085</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.208982054972364</v>
+        <v>3.204487865512935</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2544337783316054</v>
+        <v>0.2554464370565278</v>
       </c>
       <c r="D117" t="n">
-        <v>3.695849395725771</v>
+        <v>3.681596492839013</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1684259555255568</v>
+        <v>0.1535680748314177</v>
       </c>
       <c r="F117" t="n">
-        <v>3.695849395725771</v>
+        <v>3.681596492839013</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1593662143952221</v>
+        <v>0.1622282685139073</v>
       </c>
       <c r="H117" t="n">
-        <v>3.208982054972364</v>
+        <v>3.204487865512935</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2597391629291659</v>
+        <v>0.2498122995877444</v>
       </c>
       <c r="J117" t="n">
-        <v>3.208982054972364</v>
+        <v>3.204487865512935</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2323516124781894</v>
+        <v>0.2332256912659739</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.245549246809047</v>
+        <v>3.241108559605087</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2460263032433464</v>
+        <v>0.2470625936196591</v>
       </c>
       <c r="D118" t="n">
-        <v>3.737455430082036</v>
+        <v>3.723372204610596</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1568682238465325</v>
+        <v>0.1429818325444188</v>
       </c>
       <c r="F118" t="n">
-        <v>3.737455430082036</v>
+        <v>3.723372204610596</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1509287194623208</v>
+        <v>0.1537935463639692</v>
       </c>
       <c r="H118" t="n">
-        <v>3.245549246809047</v>
+        <v>3.241108559605087</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2497912520433555</v>
+        <v>0.2407652938743202</v>
       </c>
       <c r="J118" t="n">
-        <v>3.245549246809047</v>
+        <v>3.241108559605087</v>
       </c>
       <c r="K118" t="n">
-        <v>0.2250986301795415</v>
+        <v>0.2259920173550099</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.282116438645731</v>
+        <v>3.27772925369724</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2372866031388469</v>
+        <v>0.2383516502817231</v>
       </c>
       <c r="D119" t="n">
-        <v>3.779061464438302</v>
+        <v>3.76514791638218</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1457503576447509</v>
+        <v>0.1328225989182658</v>
       </c>
       <c r="F119" t="n">
-        <v>3.779061464438302</v>
+        <v>3.76514791638218</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1423696921802445</v>
+        <v>0.1452437361317598</v>
       </c>
       <c r="H119" t="n">
-        <v>3.282116438645731</v>
+        <v>3.27772925369724</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2395150160036712</v>
+        <v>0.2313539357348345</v>
       </c>
       <c r="J119" t="n">
-        <v>3.282116438645731</v>
+        <v>3.27772925369724</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2175882165883456</v>
+        <v>0.2184997370618039</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.318683630482414</v>
+        <v>3.314349947789393</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2283078610336464</v>
+        <v>0.2293809980877405</v>
       </c>
       <c r="D120" t="n">
-        <v>3.820667498794567</v>
+        <v>3.806923628153763</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1351356810051747</v>
+        <v>0.1231066472302895</v>
       </c>
       <c r="F120" t="n">
-        <v>3.820667498794567</v>
+        <v>3.806923628153763</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1337684214527591</v>
+        <v>0.1366163109671875</v>
       </c>
       <c r="H120" t="n">
-        <v>3.318683630482414</v>
+        <v>3.314349947789393</v>
       </c>
       <c r="I120" t="n">
-        <v>0.22895572488264</v>
+        <v>0.2216444780362806</v>
       </c>
       <c r="J120" t="n">
-        <v>3.318683630482414</v>
+        <v>3.314349947789393</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2098486137109458</v>
+        <v>0.2107741080926047</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.355250822319097</v>
+        <v>3.350970641881545</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2192200493107631</v>
+        <v>0.2202865607094878</v>
       </c>
       <c r="D121" t="n">
-        <v>3.862273533150831</v>
+        <v>3.848699339925346</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1250992712705418</v>
+        <v>0.113887580043177</v>
       </c>
       <c r="F121" t="n">
-        <v>3.862273533150831</v>
+        <v>3.848699339925346</v>
       </c>
       <c r="G121" t="n">
-        <v>0.125198640614183</v>
+        <v>0.1279843642689107</v>
       </c>
       <c r="H121" t="n">
-        <v>3.355250822319097</v>
+        <v>3.350970641881545</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2181970680773681</v>
+        <v>0.2117101823952614</v>
       </c>
       <c r="J121" t="n">
-        <v>3.355250822319097</v>
+        <v>3.350970641881545</v>
       </c>
       <c r="K121" t="n">
-        <v>0.201914460053869</v>
+        <v>0.2028522892379726</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.39181801415578</v>
+        <v>3.387591335973698</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2101075154117756</v>
+        <v>0.211157983518349</v>
       </c>
       <c r="D122" t="n">
-        <v>3.903879567507096</v>
+        <v>3.89047505169693</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1156552398691464</v>
+        <v>0.1051881139372684</v>
       </c>
       <c r="F122" t="n">
-        <v>3.903879567507096</v>
+        <v>3.89047505169693</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1167174486285993</v>
+        <v>0.1194299948435495</v>
       </c>
       <c r="H122" t="n">
-        <v>3.39181801415578</v>
+        <v>3.387591335973698</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2073422821216646</v>
+        <v>0.2016228496298118</v>
       </c>
       <c r="J122" t="n">
-        <v>3.39181801415578</v>
+        <v>3.387591335973698</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1938244522862571</v>
+        <v>0.19476484807013</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.428385205992463</v>
+        <v>3.42421203006585</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201055960465451</v>
+        <v>0.2020831690909621</v>
       </c>
       <c r="D123" t="n">
-        <v>3.945485601863362</v>
+        <v>3.932250763468514</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1068531471580536</v>
+        <v>0.09699410541925986</v>
       </c>
       <c r="F123" t="n">
-        <v>3.945485601863362</v>
+        <v>3.932250763468514</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1083919494666344</v>
+        <v>0.1110192188767267</v>
       </c>
       <c r="H123" t="n">
-        <v>3.428385205992463</v>
+        <v>3.42421203006585</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1964664399933142</v>
+        <v>0.1914713806634668</v>
       </c>
       <c r="J123" t="n">
-        <v>3.428385205992463</v>
+        <v>3.42421203006585</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1856050463207827</v>
+        <v>0.1865523301809386</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.464952397829146</v>
+        <v>3.460832724158003</v>
       </c>
       <c r="C124" t="n">
-        <v>0.192116639496255</v>
+        <v>0.1931188783372376</v>
       </c>
       <c r="D124" t="n">
-        <v>3.987091636219627</v>
+        <v>3.974026475240097</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0986377325586066</v>
+        <v>0.08930365660262858</v>
       </c>
       <c r="F124" t="n">
-        <v>3.987091636219627</v>
+        <v>3.974026475240097</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1002941716361947</v>
+        <v>0.1028118511949935</v>
       </c>
       <c r="H124" t="n">
-        <v>3.464952397829146</v>
+        <v>3.460832724158003</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1856730686377289</v>
+        <v>0.1813306616867454</v>
       </c>
       <c r="J124" t="n">
-        <v>3.464952397829146</v>
+        <v>3.460832724158003</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1772980285680832</v>
+        <v>0.1782394058521097</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.501519589665829</v>
+        <v>3.497453418250156</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1833380071805852</v>
+        <v>0.1843007608523958</v>
       </c>
       <c r="D125" t="n">
-        <v>4.028697670575891</v>
+        <v>4.015802187011681</v>
       </c>
       <c r="E125" t="n">
-        <v>0.09105983074245404</v>
+        <v>0.08211036757197764</v>
       </c>
       <c r="F125" t="n">
-        <v>4.028697670575891</v>
+        <v>4.015802187011681</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0924954881095003</v>
+        <v>0.09486670843260243</v>
       </c>
       <c r="H125" t="n">
-        <v>3.501519589665829</v>
+        <v>3.497453418250156</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1750497301315814</v>
+        <v>0.1713235298745897</v>
       </c>
       <c r="J125" t="n">
-        <v>3.501519589665829</v>
+        <v>3.497453418250156</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1689417712245683</v>
+        <v>0.1698738250444811</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.538086781502512</v>
+        <v>3.534074112342308</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1747535783491405</v>
+        <v>0.1756852611604417</v>
       </c>
       <c r="D126" t="n">
-        <v>4.070303704932156</v>
+        <v>4.057577898783264</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08403535908841119</v>
+        <v>0.07536341358915331</v>
       </c>
       <c r="F126" t="n">
-        <v>4.070303704932156</v>
+        <v>4.057577898783264</v>
       </c>
       <c r="G126" t="n">
-        <v>0.08501578424128564</v>
+        <v>0.0872693107688796</v>
       </c>
       <c r="H126" t="n">
-        <v>3.538086781502512</v>
+        <v>3.534074112342308</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1646823778617613</v>
+        <v>0.1615047266753399</v>
       </c>
       <c r="J126" t="n">
-        <v>3.538086781502512</v>
+        <v>3.534074112342308</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1605719399699319</v>
+        <v>0.1614887698285051</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.574653973339196</v>
+        <v>3.570694806434461</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1663485980751702</v>
+        <v>0.1672523325487393</v>
       </c>
       <c r="D127" t="n">
-        <v>4.111909739288421</v>
+        <v>4.099353610554847</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07755587799894044</v>
+        <v>0.0690794093496495</v>
       </c>
       <c r="F127" t="n">
-        <v>4.111909739288421</v>
+        <v>4.099353610554847</v>
       </c>
       <c r="G127" t="n">
-        <v>0.07793173595298282</v>
+        <v>0.08002315656377411</v>
       </c>
       <c r="H127" t="n">
-        <v>3.574653973339196</v>
+        <v>3.570694806434461</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1546274447209905</v>
+        <v>0.1519462162592382</v>
       </c>
       <c r="J127" t="n">
-        <v>3.574653973339196</v>
+        <v>3.570694806434461</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1522147445119431</v>
+        <v>0.153118704032134</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.611221165175879</v>
+        <v>3.607315500526613</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1581327161190895</v>
+        <v>0.1589962466268089</v>
       </c>
       <c r="D128" t="n">
-        <v>4.153515773644687</v>
+        <v>4.141129322326432</v>
       </c>
       <c r="E128" t="n">
-        <v>0.07156361673939529</v>
+        <v>0.06319838776308283</v>
       </c>
       <c r="F128" t="n">
-        <v>4.153515773644687</v>
+        <v>4.141129322326432</v>
       </c>
       <c r="G128" t="n">
-        <v>0.07125585859328538</v>
+        <v>0.07319707218910868</v>
       </c>
       <c r="H128" t="n">
-        <v>3.611221165175879</v>
+        <v>3.607315500526613</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1449258918083421</v>
+        <v>0.1427419905533819</v>
       </c>
       <c r="J128" t="n">
-        <v>3.611221165175879</v>
+        <v>3.607315500526613</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1438957141801132</v>
+        <v>0.1447869633923601</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.647788357012562</v>
+        <v>3.643936194618766</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1501001753278414</v>
+        <v>0.1509379551119433</v>
       </c>
       <c r="D129" t="n">
-        <v>4.195121808000951</v>
+        <v>4.182905034098015</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06601928466853246</v>
+        <v>0.05771023732797551</v>
       </c>
       <c r="F129" t="n">
-        <v>4.195121808000951</v>
+        <v>4.182905034098015</v>
       </c>
       <c r="G129" t="n">
-        <v>0.06500734221554026</v>
+        <v>0.06679736856363389</v>
       </c>
       <c r="H129" t="n">
-        <v>3.647788357012562</v>
+        <v>3.643936194618766</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1356688936314261</v>
+        <v>0.1338808640331043</v>
       </c>
       <c r="J129" t="n">
-        <v>3.647788357012562</v>
+        <v>3.643936194618766</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1356538611231661</v>
+        <v>0.1365206983127092</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.684355548849245</v>
+        <v>3.680556888710918</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1422159079525788</v>
+        <v>0.1430302638839672</v>
       </c>
       <c r="D130" t="n">
-        <v>4.236727842357216</v>
+        <v>4.224680745869598</v>
       </c>
       <c r="E130" t="n">
-        <v>0.06088610569366536</v>
+        <v>0.05259494348397916</v>
       </c>
       <c r="F130" t="n">
-        <v>4.236727842357216</v>
+        <v>4.224680745869598</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05921732077361495</v>
+        <v>0.06083851056619135</v>
       </c>
       <c r="H130" t="n">
-        <v>3.684355548849245</v>
+        <v>3.680556888710918</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1268433772417652</v>
+        <v>0.1254007870632296</v>
       </c>
       <c r="J130" t="n">
-        <v>3.684355548849245</v>
+        <v>3.680556888710918</v>
       </c>
       <c r="K130" t="n">
-        <v>0.127515495565155</v>
+        <v>0.1283543545755448</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.720922740685928</v>
+        <v>3.717177582803071</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134476139684257</v>
+        <v>0.1352585078161283</v>
       </c>
       <c r="D131" t="n">
-        <v>4.278333876713481</v>
+        <v>4.266456457641182</v>
       </c>
       <c r="E131" t="n">
-        <v>0.05611484866783339</v>
+        <v>0.04782130729396688</v>
       </c>
       <c r="F131" t="n">
-        <v>4.278333876713481</v>
+        <v>4.266456457641182</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05385121358834286</v>
+        <v>0.0553449496007084</v>
       </c>
       <c r="H131" t="n">
-        <v>3.720922740685928</v>
+        <v>3.717177582803071</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1184665192826037</v>
+        <v>0.1173603196992539</v>
       </c>
       <c r="J131" t="n">
-        <v>3.720922740685928</v>
+        <v>3.717177582803071</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1195167864406354</v>
+        <v>0.1203228284516639</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.757489932522612</v>
+        <v>3.753798276895224</v>
       </c>
       <c r="C132" t="n">
-        <v>0.126869388819801</v>
+        <v>0.127631541416117</v>
       </c>
       <c r="D132" t="n">
-        <v>4.319939911069746</v>
+        <v>4.308232169412765</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05167629792484953</v>
+        <v>0.04339475458908873</v>
       </c>
       <c r="F132" t="n">
-        <v>4.319939911069746</v>
+        <v>4.308232169412765</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04893537306990526</v>
+        <v>0.05027463725679406</v>
       </c>
       <c r="H132" t="n">
-        <v>3.757489932522612</v>
+        <v>3.753798276895224</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1105792019465199</v>
+        <v>0.1097044207336048</v>
       </c>
       <c r="J132" t="n">
-        <v>3.757489932522612</v>
+        <v>3.753798276895224</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1116716414725937</v>
+        <v>0.1124522083871082</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.794057124359295</v>
+        <v>3.790418970987376</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1193719125848225</v>
+        <v>0.1201145706339289</v>
       </c>
       <c r="D133" t="n">
-        <v>4.361545945426011</v>
+        <v>4.350007881184349</v>
       </c>
       <c r="E133" t="n">
-        <v>0.04754298949722526</v>
+        <v>0.03927446077022197</v>
       </c>
       <c r="F133" t="n">
-        <v>4.361545945426011</v>
+        <v>4.350007881184349</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04444491739343686</v>
+        <v>0.04564285568732954</v>
       </c>
       <c r="H133" t="n">
-        <v>3.794057124359295</v>
+        <v>3.790418970987376</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1031315133814133</v>
+        <v>0.1024349117514389</v>
       </c>
       <c r="J133" t="n">
-        <v>3.794057124359295</v>
+        <v>3.790418970987376</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1040041306374873</v>
+        <v>0.104756269166083</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.830624316195978</v>
+        <v>3.827039665079528</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1119880870403939</v>
+        <v>0.1127036919155588</v>
       </c>
       <c r="D134" t="n">
-        <v>4.403151979782276</v>
+        <v>4.391783592955933</v>
       </c>
       <c r="E134" t="n">
-        <v>0.04368087147165334</v>
+        <v>0.03547951868751587</v>
       </c>
       <c r="F134" t="n">
-        <v>4.403151979782276</v>
+        <v>4.391783592955933</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04033651269694683</v>
+        <v>0.04142752785936462</v>
       </c>
       <c r="H134" t="n">
-        <v>3.830624316195978</v>
+        <v>3.827039665079528</v>
       </c>
       <c r="I134" t="n">
-        <v>0.09611960423387488</v>
+        <v>0.09555161071627392</v>
       </c>
       <c r="J134" t="n">
-        <v>3.830624316195978</v>
+        <v>3.827039665079528</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0965433489274355</v>
+        <v>0.09726520723312521</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.867191508032661</v>
+        <v>3.863660359171681</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1047190320669433</v>
+        <v>0.105415844867711</v>
       </c>
       <c r="D135" t="n">
-        <v>4.444758014138541</v>
+        <v>4.433559304727516</v>
       </c>
       <c r="E135" t="n">
-        <v>0.04009307043561203</v>
+        <v>0.03197216863897764</v>
       </c>
       <c r="F135" t="n">
-        <v>4.444758014138541</v>
+        <v>4.433559304727516</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0366138666451945</v>
+        <v>0.03757684429033569</v>
       </c>
       <c r="H135" t="n">
-        <v>3.867191508032661</v>
+        <v>3.863660359171681</v>
       </c>
       <c r="I135" t="n">
-        <v>0.08953574483343173</v>
+        <v>0.08899588951349956</v>
       </c>
       <c r="J135" t="n">
-        <v>3.867191508032661</v>
+        <v>3.863660359171681</v>
       </c>
       <c r="K135" t="n">
-        <v>0.08931729444475812</v>
+        <v>0.09000545986131663</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.903758699869345</v>
+        <v>3.900281053263834</v>
       </c>
       <c r="C136" t="n">
-        <v>0.09755760559175872</v>
+        <v>0.09823549405954964</v>
       </c>
       <c r="D136" t="n">
-        <v>4.486364048494806</v>
+        <v>4.475335016499099</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0367353720793801</v>
+        <v>0.02876477899343137</v>
       </c>
       <c r="F136" t="n">
-        <v>4.486364048494806</v>
+        <v>4.475335016499099</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03322908734844834</v>
+        <v>0.03409339976800746</v>
       </c>
       <c r="H136" t="n">
-        <v>3.903758699869345</v>
+        <v>3.900281053263834</v>
       </c>
       <c r="I136" t="n">
-        <v>0.08335039386828391</v>
+        <v>0.08277020621159016</v>
       </c>
       <c r="J136" t="n">
-        <v>3.903758699869345</v>
+        <v>3.900281053263834</v>
       </c>
       <c r="K136" t="n">
-        <v>0.08235534108896868</v>
+        <v>0.08300337178051599</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.940325891706028</v>
+        <v>3.936901747355987</v>
       </c>
       <c r="C137" t="n">
-        <v>0.09052412317838766</v>
+        <v>0.09117324228328119</v>
       </c>
       <c r="D137" t="n">
-        <v>4.527970082851071</v>
+        <v>4.517110728270683</v>
       </c>
       <c r="E137" t="n">
-        <v>0.03363779193437469</v>
+        <v>0.02583680168155817</v>
       </c>
       <c r="F137" t="n">
-        <v>4.527970082851071</v>
+        <v>4.517110728270683</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03014859253977245</v>
+        <v>0.03092711816316655</v>
       </c>
       <c r="H137" t="n">
-        <v>3.940325891706028</v>
+        <v>3.936901747355987</v>
       </c>
       <c r="I137" t="n">
-        <v>0.07754238662614782</v>
+        <v>0.07685355289581956</v>
       </c>
       <c r="J137" t="n">
-        <v>3.940325891706028</v>
+        <v>3.936901747355987</v>
       </c>
       <c r="K137" t="n">
-        <v>0.07567408092443516</v>
+        <v>0.07628774697149704</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.97689308354271</v>
+        <v>3.973522441448138</v>
       </c>
       <c r="C138" t="n">
-        <v>0.08363394774167696</v>
+        <v>0.08426263428510307</v>
       </c>
       <c r="D138" t="n">
-        <v>4.569576117207336</v>
+        <v>4.558886440042267</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03074898042799696</v>
+        <v>0.02318137228539899</v>
       </c>
       <c r="F138" t="n">
-        <v>4.569576117207336</v>
+        <v>4.558886440042267</v>
       </c>
       <c r="G138" t="n">
-        <v>0.02735458852739102</v>
+        <v>0.02804482970523651</v>
       </c>
       <c r="H138" t="n">
-        <v>3.97689308354271</v>
+        <v>3.973522441448138</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0720746576205248</v>
+        <v>0.07120330300951776</v>
       </c>
       <c r="J138" t="n">
-        <v>3.97689308354271</v>
+        <v>3.973522441448138</v>
       </c>
       <c r="K138" t="n">
-        <v>0.06929550545770842</v>
+        <v>0.06987260554641615</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.013460275379393</v>
+        <v>4.010143135540291</v>
       </c>
       <c r="C139" t="n">
-        <v>0.07689072008331146</v>
+        <v>0.07749826239710172</v>
       </c>
       <c r="D139" t="n">
-        <v>4.611182151563601</v>
+        <v>4.60066215181385</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02809645545469104</v>
+        <v>0.02078193029444924</v>
       </c>
       <c r="F139" t="n">
-        <v>4.611182151563601</v>
+        <v>4.60066215181385</v>
       </c>
       <c r="G139" t="n">
-        <v>0.02480123783017334</v>
+        <v>0.02542867156615394</v>
       </c>
       <c r="H139" t="n">
-        <v>4.013460275379393</v>
+        <v>4.010143135540291</v>
       </c>
       <c r="I139" t="n">
-        <v>0.06694036381444925</v>
+        <v>0.06582924066629238</v>
       </c>
       <c r="J139" t="n">
-        <v>4.013460275379393</v>
+        <v>4.010143135540291</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06324611074362506</v>
+        <v>0.06378106325461945</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.050027467216077</v>
+        <v>4.046763829632444</v>
       </c>
       <c r="C140" t="n">
-        <v>0.07033278931777698</v>
+        <v>0.07090496198762536</v>
       </c>
       <c r="D140" t="n">
-        <v>4.652788185919865</v>
+        <v>4.642437863585434</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0256420771328006</v>
+        <v>0.01863501650056637</v>
       </c>
       <c r="F140" t="n">
-        <v>4.652788185919865</v>
+        <v>4.642437863585434</v>
       </c>
       <c r="G140" t="n">
-        <v>0.02247286767854636</v>
+        <v>0.02303244071049317</v>
       </c>
       <c r="H140" t="n">
-        <v>4.050027467216077</v>
+        <v>4.046763829632444</v>
       </c>
       <c r="I140" t="n">
-        <v>0.06212350788409423</v>
+        <v>0.0607117523054134</v>
       </c>
       <c r="J140" t="n">
-        <v>4.050027467216077</v>
+        <v>4.046763829632444</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05753519199778171</v>
+        <v>0.0580335642032721</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.08659465905276</v>
+        <v>4.083384523724597</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06398551555490425</v>
+        <v>0.06453374821715499</v>
       </c>
       <c r="D141" t="n">
-        <v>4.694394220276131</v>
+        <v>4.684213575357017</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02339744505672958</v>
+        <v>0.01670983951461263</v>
       </c>
       <c r="F141" t="n">
-        <v>4.694394220276131</v>
+        <v>4.684213575357017</v>
       </c>
       <c r="G141" t="n">
-        <v>0.02034479875734463</v>
+        <v>0.02084513365885092</v>
       </c>
       <c r="H141" t="n">
-        <v>4.08659465905276</v>
+        <v>4.083384523724597</v>
       </c>
       <c r="I141" t="n">
-        <v>0.05757738480630725</v>
+        <v>0.05584619970303728</v>
       </c>
       <c r="J141" t="n">
-        <v>4.08659465905276</v>
+        <v>4.083384523724597</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05218968078800664</v>
+        <v>0.05264456428440897</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.123161850889443</v>
+        <v>4.120005217816749</v>
       </c>
       <c r="C142" t="n">
-        <v>0.05785617210095663</v>
+        <v>0.05837955385351876</v>
       </c>
       <c r="D142" t="n">
-        <v>4.736000254632396</v>
+        <v>4.7259892871286</v>
       </c>
       <c r="E142" t="n">
-        <v>0.02135656282478912</v>
+        <v>0.01501696104546231</v>
       </c>
       <c r="F142" t="n">
-        <v>4.736000254632396</v>
+        <v>4.7259892871286</v>
       </c>
       <c r="G142" t="n">
-        <v>0.01838253658546454</v>
+        <v>0.01884229580364619</v>
       </c>
       <c r="H142" t="n">
-        <v>4.123161850889443</v>
+        <v>4.120005217816749</v>
       </c>
       <c r="I142" t="n">
-        <v>0.05330496601493488</v>
+        <v>0.05123899186420594</v>
       </c>
       <c r="J142" t="n">
-        <v>4.123161850889443</v>
+        <v>4.120005217816749</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04720592776215507</v>
+        <v>0.0476194822603243</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.159729042726126</v>
+        <v>4.156625911908901</v>
       </c>
       <c r="C143" t="n">
-        <v>0.05199933524401548</v>
+        <v>0.0524787633258671</v>
       </c>
       <c r="D143" t="n">
-        <v>4.777606288988661</v>
+        <v>4.767764998900184</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01947805145575758</v>
+        <v>0.01350908914629641</v>
       </c>
       <c r="F143" t="n">
-        <v>4.777606288988661</v>
+        <v>4.767764998900184</v>
       </c>
       <c r="G143" t="n">
-        <v>0.01658169220132218</v>
+        <v>0.01699400726822569</v>
       </c>
       <c r="H143" t="n">
-        <v>4.159729042726126</v>
+        <v>4.156625911908901</v>
       </c>
       <c r="I143" t="n">
-        <v>0.04930516901286004</v>
+        <v>0.04688021591708264</v>
       </c>
       <c r="J143" t="n">
-        <v>4.159729042726126</v>
+        <v>4.156625911908901</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04259305829786747</v>
+        <v>0.04297059213675172</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.196296234562809</v>
+        <v>4.193246606001054</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0464400133676998</v>
+        <v>0.04689194797285868</v>
       </c>
       <c r="D144" t="n">
-        <v>4.819212323344925</v>
+        <v>4.809540710671768</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01776446790427162</v>
+        <v>0.01217400605986433</v>
       </c>
       <c r="F144" t="n">
-        <v>4.819212323344925</v>
+        <v>4.809540710671768</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01492257011279782</v>
+        <v>0.0152967999166418</v>
       </c>
       <c r="H144" t="n">
-        <v>4.196296234562809</v>
+        <v>4.193246606001054</v>
       </c>
       <c r="I144" t="n">
-        <v>0.04553195873468041</v>
+        <v>0.04277834581050923</v>
       </c>
       <c r="J144" t="n">
-        <v>4.196296234562809</v>
+        <v>4.193246606001054</v>
       </c>
       <c r="K144" t="n">
-        <v>0.03833665737989896</v>
+        <v>0.03868245985849774</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.232863426399493</v>
+        <v>4.229867300093207</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04117863754769426</v>
+        <v>0.04160256950441984</v>
       </c>
       <c r="D145" t="n">
-        <v>4.860818357701191</v>
+        <v>4.851316422443351</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01619281032083814</v>
+        <v>0.01098873242735935</v>
       </c>
       <c r="F145" t="n">
-        <v>4.860818357701191</v>
+        <v>4.851316422443351</v>
       </c>
       <c r="G145" t="n">
-        <v>0.01339868851435296</v>
+        <v>0.01373616625265325</v>
       </c>
       <c r="H145" t="n">
-        <v>4.232863426399493</v>
+        <v>4.229867300093207</v>
       </c>
       <c r="I145" t="n">
-        <v>0.04199074719164567</v>
+        <v>0.03892564872199918</v>
       </c>
       <c r="J145" t="n">
-        <v>4.232863426399493</v>
+        <v>4.229867300093207</v>
       </c>
       <c r="K145" t="n">
-        <v>0.03444629723602585</v>
+        <v>0.03475006187210192</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.269430618236176</v>
+        <v>4.26648799418536</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03627491064946236</v>
+        <v>0.0366489534486847</v>
       </c>
       <c r="D146" t="n">
-        <v>4.902424392057456</v>
+        <v>4.893092134214934</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01474866970338422</v>
+        <v>0.009940850799951084</v>
       </c>
       <c r="F146" t="n">
-        <v>4.902424392057456</v>
+        <v>4.893092134214934</v>
       </c>
       <c r="G146" t="n">
-        <v>0.01200537253715684</v>
+        <v>0.01230565013877323</v>
       </c>
       <c r="H146" t="n">
-        <v>4.269430618236176</v>
+        <v>4.26648799418536</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03868252450064481</v>
+        <v>0.03532119538328152</v>
       </c>
       <c r="J146" t="n">
-        <v>4.269430618236176</v>
+        <v>4.26648799418536</v>
       </c>
       <c r="K146" t="n">
-        <v>0.03091379320925712</v>
+        <v>0.03118260191520773</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.305997810072859</v>
+        <v>4.303108688277512</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03173704673298355</v>
+        <v>0.03208247755886123</v>
       </c>
       <c r="D147" t="n">
-        <v>4.944030426413721</v>
+        <v>4.934867845986518</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01342673728498541</v>
+        <v>0.0090005893515798</v>
       </c>
       <c r="F147" t="n">
-        <v>4.944030426413721</v>
+        <v>4.934867845986518</v>
       </c>
       <c r="G147" t="n">
-        <v>0.01072439908680864</v>
+        <v>0.01099706506435261</v>
       </c>
       <c r="H147" t="n">
-        <v>4.305997810072859</v>
+        <v>4.303108688277512</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03557153444873731</v>
+        <v>0.03196962129437476</v>
       </c>
       <c r="J147" t="n">
-        <v>4.305997810072859</v>
+        <v>4.303108688277512</v>
       </c>
       <c r="K147" t="n">
-        <v>0.02771526472982688</v>
+        <v>0.02795392930319643</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.342565001909542</v>
+        <v>4.339729382369664</v>
       </c>
       <c r="C148" t="n">
-        <v>0.02754806360515674</v>
+        <v>0.02786530311062207</v>
       </c>
       <c r="D148" t="n">
-        <v>4.985636460769985</v>
+        <v>4.976643557758101</v>
       </c>
       <c r="E148" t="n">
-        <v>0.01220590302963993</v>
+        <v>0.008162427741673148</v>
       </c>
       <c r="F148" t="n">
-        <v>4.985636460769985</v>
+        <v>4.976643557758101</v>
       </c>
       <c r="G148" t="n">
-        <v>0.009554769971278429</v>
+        <v>0.009798477775379479</v>
       </c>
       <c r="H148" t="n">
-        <v>4.342565001909542</v>
+        <v>4.339729382369664</v>
       </c>
       <c r="I148" t="n">
-        <v>0.03265477337972517</v>
+        <v>0.0288698616311617</v>
       </c>
       <c r="J148" t="n">
-        <v>4.342565001909542</v>
+        <v>4.339729382369664</v>
       </c>
       <c r="K148" t="n">
-        <v>0.02482455716497054</v>
+        <v>0.02503959644675421</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.379132193746226</v>
+        <v>4.376350076461817</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02375654807169129</v>
+        <v>0.02402481978779862</v>
       </c>
       <c r="D149" t="n">
-        <v>5.02724249512625</v>
+        <v>5.018419269529685</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0110724863415484</v>
+        <v>0.00740362424599295</v>
       </c>
       <c r="F149" t="n">
-        <v>5.02724249512625</v>
+        <v>5.018419269529685</v>
       </c>
       <c r="G149" t="n">
-        <v>0.008494105008262027</v>
+        <v>0.008711485394624715</v>
       </c>
       <c r="H149" t="n">
-        <v>4.379132193746226</v>
+        <v>4.376350076461817</v>
       </c>
       <c r="I149" t="n">
-        <v>0.02993642262182537</v>
+        <v>0.02600179649875759</v>
       </c>
       <c r="J149" t="n">
-        <v>4.379132193746226</v>
+        <v>4.376350076461817</v>
       </c>
       <c r="K149" t="n">
-        <v>0.02221909191243699</v>
+        <v>0.02241074615100097</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.415699385582909</v>
+        <v>4.41297077055397</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02034370319987279</v>
+        <v>0.02058607835390506</v>
       </c>
       <c r="D150" t="n">
-        <v>5.068848529482516</v>
+        <v>5.060194981301269</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01002278455959811</v>
+        <v>0.006711415231584007</v>
       </c>
       <c r="F150" t="n">
-        <v>5.068848529482516</v>
+        <v>5.060194981301269</v>
       </c>
       <c r="G150" t="n">
-        <v>0.007538237151783017</v>
+        <v>0.007731316110293013</v>
       </c>
       <c r="H150" t="n">
-        <v>4.415699385582909</v>
+        <v>4.41297077055397</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02738182434040833</v>
+        <v>0.02335564664274208</v>
       </c>
       <c r="J150" t="n">
-        <v>4.415699385582909</v>
+        <v>4.41297077055397</v>
       </c>
       <c r="K150" t="n">
-        <v>0.01989302368392778</v>
+        <v>0.02005735665193493</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.452266577419592</v>
+        <v>4.449591464646122</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01727437297896622</v>
+        <v>0.01749215623100578</v>
       </c>
       <c r="D151" t="n">
-        <v>5.110454563838781</v>
+        <v>5.101970693072852</v>
       </c>
       <c r="E151" t="n">
-        <v>0.009045077268066191</v>
+        <v>0.006085413136456529</v>
       </c>
       <c r="F151" t="n">
-        <v>5.110454563838781</v>
+        <v>5.101970693072852</v>
       </c>
       <c r="G151" t="n">
-        <v>0.006691657503379429</v>
+        <v>0.006855105034672283</v>
       </c>
       <c r="H151" t="n">
-        <v>4.452266577419592</v>
+        <v>4.449591464646122</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0249904272952796</v>
+        <v>0.02093536678451824</v>
       </c>
       <c r="J151" t="n">
-        <v>4.452266577419592</v>
+        <v>4.449591464646122</v>
       </c>
       <c r="K151" t="n">
-        <v>0.01781498156640841</v>
+        <v>0.01795820111620377</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.488833769256274</v>
+        <v>4.486212158738275</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0145773083019227</v>
+        <v>0.01475394918629587</v>
       </c>
       <c r="D152" t="n">
-        <v>5.152060598195045</v>
+        <v>5.143746404844435</v>
       </c>
       <c r="E152" t="n">
-        <v>0.008138670705391768</v>
+        <v>0.005510189090133298</v>
       </c>
       <c r="F152" t="n">
-        <v>5.152060598195045</v>
+        <v>5.143746404844435</v>
       </c>
       <c r="G152" t="n">
-        <v>0.005946071504802417</v>
+        <v>0.006087184551054665</v>
       </c>
       <c r="H152" t="n">
-        <v>4.488833769256274</v>
+        <v>4.486212158738275</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02276067400338662</v>
+        <v>0.01871391712550034</v>
       </c>
       <c r="J152" t="n">
-        <v>4.488833769256274</v>
+        <v>4.486212158738275</v>
       </c>
       <c r="K152" t="n">
-        <v>0.01595552317423203</v>
+        <v>0.01608086311111877</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.525400961092958</v>
+        <v>4.522832852830427</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01221247748206605</v>
+        <v>0.01236877302093194</v>
       </c>
       <c r="D153" t="n">
-        <v>5.19366663255131</v>
+        <v>5.185522116616019</v>
       </c>
       <c r="E153" t="n">
-        <v>0.007291722752397603</v>
+        <v>0.004973733311877866</v>
       </c>
       <c r="F153" t="n">
-        <v>5.19366663255131</v>
+        <v>5.185522116616019</v>
       </c>
       <c r="G153" t="n">
-        <v>0.005298330758149669</v>
+        <v>0.00541839140509932</v>
       </c>
       <c r="H153" t="n">
-        <v>4.525400961092958</v>
+        <v>4.522832852830427</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02067379597018552</v>
+        <v>0.01668078365911843</v>
       </c>
       <c r="J153" t="n">
-        <v>4.525400961092958</v>
+        <v>4.522832852830427</v>
       </c>
       <c r="K153" t="n">
-        <v>0.01428600807649246</v>
+        <v>0.01439838127165388</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.561968152929641</v>
+        <v>4.55945354692258</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01013688014368925</v>
+        <v>0.01027447587525709</v>
       </c>
       <c r="D154" t="n">
-        <v>5.235272666907576</v>
+        <v>5.227297828387602</v>
       </c>
       <c r="E154" t="n">
-        <v>0.006500063334756016</v>
+        <v>0.004471944986119562</v>
       </c>
       <c r="F154" t="n">
-        <v>5.235272666907576</v>
+        <v>5.227297828387602</v>
       </c>
       <c r="G154" t="n">
-        <v>0.004748810321840134</v>
+        <v>0.004849127950285131</v>
       </c>
       <c r="H154" t="n">
-        <v>4.561968152929641</v>
+        <v>4.55945354692258</v>
       </c>
       <c r="I154" t="n">
-        <v>0.01872136926913143</v>
+        <v>0.01483988893816693</v>
       </c>
       <c r="J154" t="n">
-        <v>4.561968152929641</v>
+        <v>4.55945354692258</v>
       </c>
       <c r="K154" t="n">
-        <v>0.01279685349315806</v>
+        <v>0.01289289457102138</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.598535344766324</v>
+        <v>4.596074241014732</v>
       </c>
       <c r="C155" t="n">
-        <v>0.008362574056189226</v>
+        <v>0.008469966339338627</v>
       </c>
       <c r="D155" t="n">
-        <v>5.276878701263841</v>
+        <v>5.269073540159186</v>
       </c>
       <c r="E155" t="n">
-        <v>0.005763189476600025</v>
+        <v>0.004008434051901531</v>
       </c>
       <c r="F155" t="n">
-        <v>5.276878701263841</v>
+        <v>5.269073540159186</v>
       </c>
       <c r="G155" t="n">
-        <v>0.004287412752690426</v>
+        <v>0.004369227164318905</v>
       </c>
       <c r="H155" t="n">
-        <v>4.598535344766324</v>
+        <v>4.596074241014732</v>
       </c>
       <c r="I155" t="n">
-        <v>0.01690873812137558</v>
+        <v>0.01316933527567637</v>
       </c>
       <c r="J155" t="n">
-        <v>4.598535344766324</v>
+        <v>4.596074241014732</v>
       </c>
       <c r="K155" t="n">
-        <v>0.01145657170796658</v>
+        <v>0.01154176667034552</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.635102536603007</v>
+        <v>4.632694935106885</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00684327333418786</v>
+        <v>0.006936460441342373</v>
       </c>
       <c r="D156" t="n">
-        <v>5.318484735620105</v>
+        <v>5.31084925193077</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00507818347279356</v>
+        <v>0.003577439357699984</v>
       </c>
       <c r="F156" t="n">
-        <v>5.318484735620105</v>
+        <v>5.31084925193077</v>
       </c>
       <c r="G156" t="n">
-        <v>0.003908669346471798</v>
+        <v>0.003973096110321371</v>
       </c>
       <c r="H156" t="n">
-        <v>4.635102536603007</v>
+        <v>4.632694935106885</v>
       </c>
       <c r="I156" t="n">
-        <v>0.01521274832760449</v>
+        <v>0.01164822244620874</v>
       </c>
       <c r="J156" t="n">
-        <v>4.635102536603007</v>
+        <v>4.632694935106885</v>
       </c>
       <c r="K156" t="n">
-        <v>0.01024694535422738</v>
+        <v>0.01032426227283564</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.67166972843969</v>
+        <v>4.669315629199038</v>
       </c>
       <c r="C157" t="n">
-        <v>0.005539780995237131</v>
+        <v>0.005620235848661078</v>
       </c>
       <c r="D157" t="n">
-        <v>5.36009076997637</v>
+        <v>5.352624963702353</v>
       </c>
       <c r="E157" t="n">
-        <v>0.004440333863408687</v>
+        <v>0.003173147590259564</v>
       </c>
       <c r="F157" t="n">
-        <v>5.36009076997637</v>
+        <v>5.352624963702353</v>
       </c>
       <c r="G157" t="n">
-        <v>0.003608059359552306</v>
+        <v>0.003657606694514908</v>
       </c>
       <c r="H157" t="n">
-        <v>4.67166972843969</v>
+        <v>4.669315629199038</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01362612956221539</v>
+        <v>0.01026808465252622</v>
       </c>
       <c r="J157" t="n">
-        <v>4.67166972843969</v>
+        <v>4.669315629199038</v>
       </c>
       <c r="K157" t="n">
-        <v>0.009158483475778436</v>
+        <v>0.009224887386407286</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.708236920276374</v>
+        <v>4.70593632329119</v>
       </c>
       <c r="C158" t="n">
-        <v>0.004455097013749864</v>
+        <v>0.004515541855725247</v>
       </c>
       <c r="D158" t="n">
-        <v>5.401696804332635</v>
+        <v>5.394400675473936</v>
       </c>
       <c r="E158" t="n">
-        <v>0.003855279790290237</v>
+        <v>0.002803686836885182</v>
       </c>
       <c r="F158" t="n">
-        <v>5.401696804332635</v>
+        <v>5.394400675473936</v>
       </c>
       <c r="G158" t="n">
-        <v>0.003372395935921714</v>
+        <v>0.003410229768118823</v>
       </c>
       <c r="H158" t="n">
-        <v>4.708236920276374</v>
+        <v>4.70593632329119</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01214980129081924</v>
+        <v>0.009028878099250025</v>
       </c>
       <c r="J158" t="n">
-        <v>4.708236920276374</v>
+        <v>4.70593632329119</v>
       </c>
       <c r="K158" t="n">
-        <v>0.008175172043512195</v>
+        <v>0.008233784969793743</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.744804112113057</v>
+        <v>4.742557017383342</v>
       </c>
       <c r="C159" t="n">
-        <v>0.003548101745075004</v>
+        <v>0.00359948402324451</v>
       </c>
       <c r="D159" t="n">
-        <v>5.443302838688901</v>
+        <v>5.43617638724552</v>
       </c>
       <c r="E159" t="n">
-        <v>0.003322897704494113</v>
+        <v>0.002460367208206239</v>
       </c>
       <c r="F159" t="n">
-        <v>5.443302838688901</v>
+        <v>5.43617638724552</v>
       </c>
       <c r="G159" t="n">
-        <v>0.003193955040220779</v>
+        <v>0.003221644936147897</v>
       </c>
       <c r="H159" t="n">
-        <v>4.744804112113057</v>
+        <v>4.742557017383342</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0107864854065227</v>
+        <v>0.007908752456833996</v>
       </c>
       <c r="J159" t="n">
-        <v>4.744804112113057</v>
+        <v>4.742557017383342</v>
       </c>
       <c r="K159" t="n">
-        <v>0.007281906061080941</v>
+        <v>0.007334656949674984</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.78137130394974</v>
+        <v>4.779177711475495</v>
       </c>
       <c r="C160" t="n">
-        <v>0.002788680196790876</v>
+        <v>0.002832104191534701</v>
       </c>
       <c r="D160" t="n">
-        <v>5.484908873045165</v>
+        <v>5.477952099017104</v>
       </c>
       <c r="E160" t="n">
-        <v>0.002847919516788982</v>
+        <v>0.002143765797015873</v>
       </c>
       <c r="F160" t="n">
-        <v>5.484908873045165</v>
+        <v>5.477952099017104</v>
       </c>
       <c r="G160" t="n">
-        <v>0.003063361054533308</v>
+        <v>0.003083201006121289</v>
       </c>
       <c r="H160" t="n">
-        <v>4.78137130394974</v>
+        <v>4.779177711475495</v>
       </c>
       <c r="I160" t="n">
-        <v>0.009522815986649445</v>
+        <v>0.006902174670943606</v>
       </c>
       <c r="J160" t="n">
-        <v>4.78137130394974</v>
+        <v>4.779177711475495</v>
       </c>
       <c r="K160" t="n">
-        <v>0.006468859142697454</v>
+        <v>0.006515716794667292</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.817938495786423</v>
+        <v>4.815798405567648</v>
       </c>
       <c r="C161" t="n">
-        <v>0.002175814782286932</v>
+        <v>0.00220702990746824</v>
       </c>
       <c r="D161" t="n">
-        <v>5.52651490740143</v>
+        <v>5.519727810788687</v>
       </c>
       <c r="E161" t="n">
-        <v>0.002422276235682001</v>
+        <v>0.001854648612639189</v>
       </c>
       <c r="F161" t="n">
-        <v>5.52651490740143</v>
+        <v>5.519727810788687</v>
       </c>
       <c r="G161" t="n">
-        <v>0.002972014342793006</v>
+        <v>0.002985424824201912</v>
       </c>
       <c r="H161" t="n">
-        <v>4.817938495786423</v>
+        <v>4.815798405567648</v>
       </c>
       <c r="I161" t="n">
-        <v>0.008357221195304181</v>
+        <v>0.006006527580145589</v>
       </c>
       <c r="J161" t="n">
-        <v>4.817938495786423</v>
+        <v>4.815798405567648</v>
       </c>
       <c r="K161" t="n">
-        <v>0.005730559103770607</v>
+        <v>0.005771552875277038</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.854505687623107</v>
+        <v>4.852419099659801</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001677483009478489</v>
+        <v>0.001703368345657037</v>
       </c>
       <c r="D162" t="n">
-        <v>5.568120941757695</v>
+        <v>5.561503522560271</v>
       </c>
       <c r="E162" t="n">
-        <v>0.002042399910811226</v>
+        <v>0.001593526925773299</v>
       </c>
       <c r="F162" t="n">
-        <v>5.568120941757695</v>
+        <v>5.561503522560271</v>
       </c>
       <c r="G162" t="n">
-        <v>0.002911570240714858</v>
+        <v>0.002919534550614277</v>
       </c>
       <c r="H162" t="n">
-        <v>4.854505687623107</v>
+        <v>4.852419099659801</v>
       </c>
       <c r="I162" t="n">
-        <v>0.00729477943175328</v>
+        <v>0.005206894588355484</v>
       </c>
       <c r="J162" t="n">
-        <v>4.854505687623107</v>
+        <v>4.852419099659801</v>
       </c>
       <c r="K162" t="n">
-        <v>0.005060574622500462</v>
+        <v>0.005097216665723189</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.89107287945979</v>
+        <v>4.889039793751953</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001272487160944325</v>
+        <v>0.0012937973554735</v>
       </c>
       <c r="D163" t="n">
-        <v>5.60972697611396</v>
+        <v>5.603279234331854</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001712409948529818</v>
+        <v>0.001362223368878356</v>
       </c>
       <c r="F163" t="n">
-        <v>5.60972697611396</v>
+        <v>5.603279234331854</v>
       </c>
       <c r="G163" t="n">
-        <v>0.002872380820441097</v>
+        <v>0.002877369232593424</v>
       </c>
       <c r="H163" t="n">
-        <v>4.89107287945979</v>
+        <v>4.889039793751953</v>
       </c>
       <c r="I163" t="n">
-        <v>0.006331780621810009</v>
+        <v>0.004495738483248694</v>
       </c>
       <c r="J163" t="n">
-        <v>4.89107287945979</v>
+        <v>4.889039793751953</v>
       </c>
       <c r="K163" t="n">
-        <v>0.004452313273000315</v>
+        <v>0.004484488966990535</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.927640071296473</v>
+        <v>4.925660487844105</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0009578981994963543</v>
+        <v>0.0009723993943892053</v>
       </c>
       <c r="D164" t="n">
-        <v>5.651333010470225</v>
+        <v>5.645054946103437</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00142637040373396</v>
+        <v>0.001157534090041339</v>
       </c>
       <c r="F164" t="n">
-        <v>5.651333010470225</v>
+        <v>5.645054946103437</v>
       </c>
       <c r="G164" t="n">
-        <v>0.002847856043359169</v>
+        <v>0.00285073327808568</v>
       </c>
       <c r="H164" t="n">
-        <v>4.927640071296473</v>
+        <v>4.925660487844105</v>
       </c>
       <c r="I164" t="n">
-        <v>0.00546131508113689</v>
+        <v>0.003863667785407579</v>
       </c>
       <c r="J164" t="n">
-        <v>4.927640071296473</v>
+        <v>4.925660487844105</v>
       </c>
       <c r="K164" t="n">
-        <v>0.003899771456227923</v>
+        <v>0.003928539501804155</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.964207263133156</v>
+        <v>4.962281181936258</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0007108143395802717</v>
+        <v>0.0007224766930354728</v>
       </c>
       <c r="D165" t="n">
-        <v>5.69293904482649</v>
+        <v>5.686830657875022</v>
       </c>
       <c r="E165" t="n">
-        <v>0.001180324399168423</v>
+        <v>0.0009782757950936381</v>
       </c>
       <c r="F165" t="n">
-        <v>5.69293904482649</v>
+        <v>5.686830657875022</v>
       </c>
       <c r="G165" t="n">
-        <v>0.002830022331609729</v>
+        <v>0.002832496136622681</v>
       </c>
       <c r="H165" t="n">
-        <v>4.964207263133156</v>
+        <v>4.962281181936258</v>
       </c>
       <c r="I165" t="n">
-        <v>0.004683194622770644</v>
+        <v>0.003307635422955001</v>
       </c>
       <c r="J165" t="n">
-        <v>4.964207263133156</v>
+        <v>4.962281181936258</v>
       </c>
       <c r="K165" t="n">
-        <v>0.003400117730250493</v>
+        <v>0.003425321606400481</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.000774454969839</v>
+        <v>4.998901876028411</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0005172760342882013</v>
+        <v>0.0005265735036255062</v>
       </c>
       <c r="D166" t="n">
-        <v>5.734545079182755</v>
+        <v>5.728606369646605</v>
       </c>
       <c r="E166" t="n">
-        <v>0.000971266609063624</v>
+        <v>0.0008229445256605329</v>
       </c>
       <c r="F166" t="n">
-        <v>5.734545079182755</v>
+        <v>5.728606369646605</v>
       </c>
       <c r="G166" t="n">
-        <v>0.002810570499655798</v>
+        <v>0.00281346770215181</v>
       </c>
       <c r="H166" t="n">
-        <v>5.000774454969839</v>
+        <v>4.998901876028411</v>
       </c>
       <c r="I166" t="n">
-        <v>0.003988847004626653</v>
+        <v>0.002823526247917868</v>
       </c>
       <c r="J166" t="n">
-        <v>5.000774454969839</v>
+        <v>4.998901876028411</v>
       </c>
       <c r="K166" t="n">
-        <v>0.002949994597859398</v>
+        <v>0.002972118608028826</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.037341646806522</v>
+        <v>5.035522570120563</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0003737976439819568</v>
+        <v>0.000379719778767561</v>
       </c>
       <c r="D167" t="n">
-        <v>5.77615111353902</v>
+        <v>5.770382081418188</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0007961887025296301</v>
+        <v>0.0006897891705059649</v>
       </c>
       <c r="F167" t="n">
-        <v>5.77615111353902</v>
+        <v>5.770382081418188</v>
       </c>
       <c r="G167" t="n">
-        <v>0.002784619128157497</v>
+        <v>0.002788287438156244</v>
       </c>
       <c r="H167" t="n">
-        <v>5.037341646806522</v>
+        <v>5.035522570120563</v>
       </c>
       <c r="I167" t="n">
-        <v>0.003374690675099044</v>
+        <v>0.00240072038748961</v>
       </c>
       <c r="J167" t="n">
-        <v>5.037341646806522</v>
+        <v>5.035522570120563</v>
       </c>
       <c r="K167" t="n">
-        <v>0.002550061597328749</v>
+        <v>0.002568943052953043</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.073908838643205</v>
+        <v>5.072143264212715</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0002656368152590032</v>
+        <v>0.0002702305888574003</v>
       </c>
       <c r="D168" t="n">
-        <v>5.817757147895285</v>
+        <v>5.812157793189772</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0006548707307991545</v>
+        <v>0.0005768870258203318</v>
       </c>
       <c r="F168" t="n">
-        <v>5.817757147895285</v>
+        <v>5.812157793189772</v>
       </c>
       <c r="G168" t="n">
-        <v>0.002747775924375755</v>
+        <v>0.002752940086211565</v>
       </c>
       <c r="H168" t="n">
-        <v>5.073908838643205</v>
+        <v>5.072143264212715</v>
       </c>
       <c r="I168" t="n">
-        <v>0.002834874651002637</v>
+        <v>0.002030274725397797</v>
       </c>
       <c r="J168" t="n">
-        <v>5.073908838643205</v>
+        <v>5.072143264212715</v>
       </c>
       <c r="K168" t="n">
-        <v>0.002201944920778511</v>
+        <v>0.002218319182907945</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.110476030479888</v>
+        <v>5.108763958304868</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0001844939904566032</v>
+        <v>0.0001880219786921391</v>
       </c>
       <c r="D169" t="n">
-        <v>5.85936318225155</v>
+        <v>5.853933504961355</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0005392256115048459</v>
+        <v>0.0004822173958083601</v>
       </c>
       <c r="F169" t="n">
-        <v>5.85936318225155</v>
+        <v>5.853933504961355</v>
       </c>
       <c r="G169" t="n">
-        <v>0.002697013691310859</v>
+        <v>0.002703948210085697</v>
       </c>
       <c r="H169" t="n">
-        <v>5.110476030479888</v>
+        <v>5.108763958304868</v>
       </c>
       <c r="I169" t="n">
-        <v>0.002365245315499574</v>
+        <v>0.001707753623273151</v>
       </c>
       <c r="J169" t="n">
-        <v>5.110476030479888</v>
+        <v>5.108763958304868</v>
       </c>
       <c r="K169" t="n">
-        <v>0.001897195315061291</v>
+        <v>0.001911044076521221</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.147043222316571</v>
+        <v>5.145384652397021</v>
       </c>
       <c r="C170" t="n">
-        <v>0.000127491165947836</v>
+        <v>0.0001295757775234228</v>
       </c>
       <c r="D170" t="n">
-        <v>5.900969216607815</v>
+        <v>5.895709216732939</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0004457963934299774</v>
+        <v>0.000403729821179553</v>
       </c>
       <c r="F170" t="n">
-        <v>5.900969216607815</v>
+        <v>5.895709216732939</v>
       </c>
       <c r="G170" t="n">
-        <v>0.002630523421783046</v>
+        <v>0.002639291368923906</v>
       </c>
       <c r="H170" t="n">
-        <v>5.147043222316571</v>
+        <v>5.145384652397021</v>
       </c>
       <c r="I170" t="n">
-        <v>0.001960058915947974</v>
+        <v>0.001428799218441482</v>
       </c>
       <c r="J170" t="n">
-        <v>5.147043222316571</v>
+        <v>5.145384652397021</v>
       </c>
       <c r="K170" t="n">
-        <v>0.001629686016186112</v>
+        <v>0.00164065049488707</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.183610414153255</v>
+        <v>5.182005346489174</v>
       </c>
       <c r="C171" t="n">
-        <v>8.643239992930685e-05</v>
+        <v>8.798549318765374e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>5.942575250964079</v>
+        <v>5.937484928504523</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0003713071887145941</v>
+        <v>0.0003401993179937403</v>
       </c>
       <c r="F171" t="n">
-        <v>5.942575250964079</v>
+        <v>5.937484928504523</v>
       </c>
       <c r="G171" t="n">
-        <v>0.00254994417406635</v>
+        <v>0.002560071853786423</v>
       </c>
       <c r="H171" t="n">
-        <v>5.183610414153255</v>
+        <v>5.182005346489174</v>
       </c>
       <c r="I171" t="n">
-        <v>0.001613283187236816</v>
+        <v>0.001189893387861052</v>
       </c>
       <c r="J171" t="n">
-        <v>5.183610414153255</v>
+        <v>5.182005346489174</v>
       </c>
       <c r="K171" t="n">
-        <v>0.001392168272623278</v>
+        <v>0.001401600197166404</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.220177605989938</v>
+        <v>5.218626040581325</v>
       </c>
       <c r="C172" t="n">
-        <v>5.706418236692908e-05</v>
+        <v>5.820876496941948e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>5.984181285320345</v>
+        <v>5.979260640276106</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0003134145858028914</v>
+        <v>0.0002889976297801271</v>
       </c>
       <c r="F172" t="n">
-        <v>5.984181285320345</v>
+        <v>5.979260640276106</v>
       </c>
       <c r="G172" t="n">
-        <v>0.002453298699109671</v>
+        <v>0.002465092409131333</v>
       </c>
       <c r="H172" t="n">
-        <v>5.220177605989938</v>
+        <v>5.218626040581325</v>
       </c>
       <c r="I172" t="n">
-        <v>0.001318782782419539</v>
+        <v>0.0009864044187365194</v>
       </c>
       <c r="J172" t="n">
-        <v>5.220177605989938</v>
+        <v>5.218626040581325</v>
       </c>
       <c r="K172" t="n">
-        <v>0.001183038833869261</v>
+        <v>0.00119108378048638</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.256744797826621</v>
+        <v>5.255246734673478</v>
       </c>
       <c r="C173" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>6.02578731967661</v>
+        <v>6.021036352047689</v>
       </c>
       <c r="E173" t="n">
-        <v>0.000269498999398292</v>
+        <v>0.0002479141929820643</v>
       </c>
       <c r="F173" t="n">
-        <v>6.02578731967661</v>
+        <v>6.021036352047689</v>
       </c>
       <c r="G173" t="n">
-        <v>0.002340808792945193</v>
+        <v>0.002353964237439056</v>
       </c>
       <c r="H173" t="n">
-        <v>5.256744797826621</v>
+        <v>5.255246734673478</v>
       </c>
       <c r="I173" t="n">
-        <v>0.001071278180010857</v>
+        <v>0.0008140337963560071</v>
       </c>
       <c r="J173" t="n">
-        <v>5.256744797826621</v>
+        <v>5.255246734673478</v>
       </c>
       <c r="K173" t="n">
-        <v>0.001000428250425645</v>
+        <v>0.001007231965103082</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.293311989663304</v>
+        <v>5.291867428765631</v>
       </c>
       <c r="C174" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>6.067393354032875</v>
+        <v>6.062812063819273</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0002357714606271834</v>
+        <v>0.0002153202596444112</v>
       </c>
       <c r="F174" t="n">
-        <v>6.067393354032875</v>
+        <v>6.062812063819273</v>
       </c>
       <c r="G174" t="n">
-        <v>0.002214462906221566</v>
+        <v>0.002228625166157084</v>
       </c>
       <c r="H174" t="n">
-        <v>5.293311989663304</v>
+        <v>5.291867428765631</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0008667713050707402</v>
+        <v>0.000669347967950113</v>
       </c>
       <c r="J174" t="n">
-        <v>5.293311989663304</v>
+        <v>5.291867428765631</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0008447897628178603</v>
+        <v>0.0008503795572305994</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.329879181499988</v>
+        <v>5.328488122857784</v>
       </c>
       <c r="C175" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>6.108999388389139</v>
+        <v>6.104587775590856</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0002102201888507732</v>
+        <v>0.0001897564487823819</v>
       </c>
       <c r="F175" t="n">
-        <v>6.108999388389139</v>
+        <v>6.104587775590856</v>
       </c>
       <c r="G175" t="n">
-        <v>0.002076752548337308</v>
+        <v>0.002091542643516813</v>
       </c>
       <c r="H175" t="n">
-        <v>5.329879181499988</v>
+        <v>5.328488122857784</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0007006306782729126</v>
+        <v>0.0005550995911805021</v>
       </c>
       <c r="J175" t="n">
-        <v>5.329879181499988</v>
+        <v>5.328488122857784</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0007111928750851951</v>
+        <v>0.000715850395443429</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.366446373336671</v>
+        <v>5.365108816949936</v>
       </c>
       <c r="C176" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>6.150605422745405</v>
+        <v>6.14636348736244</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0001911363957139116</v>
+        <v>0.0001699385965126107</v>
       </c>
       <c r="F176" t="n">
-        <v>6.150605422745405</v>
+        <v>6.14636348736244</v>
       </c>
       <c r="G176" t="n">
-        <v>0.001930508564619411</v>
+        <v>0.001945547469624178</v>
       </c>
       <c r="H176" t="n">
-        <v>5.366446373336671</v>
+        <v>5.365108816949936</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0005659498024591496</v>
+        <v>0.0004623812609269995</v>
       </c>
       <c r="J176" t="n">
-        <v>5.366446373336671</v>
+        <v>5.365108816949936</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0005971199856040266</v>
+        <v>0.0006009655706346697</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.403013565173354</v>
+        <v>5.401729511042088</v>
       </c>
       <c r="C177" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>6.19221145710167</v>
+        <v>6.188139199134024</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0001774590165329072</v>
+        <v>0.0001547560991960871</v>
       </c>
       <c r="F177" t="n">
-        <v>6.19221145710167</v>
+        <v>6.188139199134024</v>
       </c>
       <c r="G177" t="n">
-        <v>0.001778738500968812</v>
+        <v>0.001793667628617704</v>
       </c>
       <c r="H177" t="n">
-        <v>5.403013565173354</v>
+        <v>5.401729511042088</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0004575287110113674</v>
+        <v>0.000386501747767119</v>
       </c>
       <c r="J177" t="n">
-        <v>5.403013565173354</v>
+        <v>5.401729511042088</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0005005681541377091</v>
+        <v>0.0005037140965858658</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.439580757010037</v>
+        <v>5.438350205134241</v>
       </c>
       <c r="C178" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>6.233817491457935</v>
+        <v>6.229914910905607</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001432643351575257</v>
       </c>
       <c r="F178" t="n">
-        <v>6.233817491457935</v>
+        <v>6.229914910905607</v>
       </c>
       <c r="G178" t="n">
-        <v>0.001624473226529214</v>
+        <v>0.001638970715880105</v>
       </c>
       <c r="H178" t="n">
-        <v>5.439580757010037</v>
+        <v>5.438350205134241</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0003744757308438303</v>
+        <v>0.0003239952059195008</v>
       </c>
       <c r="J178" t="n">
-        <v>5.439580757010037</v>
+        <v>5.438350205134241</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0004195673224450724</v>
+        <v>0.0004221166954300867</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.47614794884672</v>
+        <v>5.474970899226394</v>
       </c>
       <c r="C179" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>6.275423525814199</v>
+        <v>6.27169062267719</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001347288368517243</v>
       </c>
       <c r="F179" t="n">
-        <v>6.275423525814199</v>
+        <v>6.27169062267719</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001470629753688833</v>
+        <v>0.001484422232968459</v>
       </c>
       <c r="H179" t="n">
-        <v>5.47614794884672</v>
+        <v>5.474970899226394</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0003132065454106744</v>
+        <v>0.0002730443013402302</v>
       </c>
       <c r="J179" t="n">
-        <v>5.47614794884672</v>
+        <v>5.474970899226394</v>
       </c>
       <c r="K179" t="n">
-        <v>0.000352221288543782</v>
+        <v>0.0003542672898038365</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.512715140683403</v>
+        <v>5.511591593318546</v>
       </c>
       <c r="C180" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>6.317029560170464</v>
+        <v>6.313466334448774</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F180" t="n">
-        <v>6.317029560170464</v>
+        <v>6.313466334448774</v>
       </c>
       <c r="G180" t="n">
-        <v>0.001319895624366005</v>
+        <v>0.001332765437723655</v>
       </c>
       <c r="H180" t="n">
-        <v>5.512715140683403</v>
+        <v>5.511591593318546</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0002653814537695219</v>
+        <v>0.0002319512034998887</v>
       </c>
       <c r="J180" t="n">
-        <v>5.512715140683403</v>
+        <v>5.511591593318546</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0002967387303116882</v>
+        <v>0.000298364452660438</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.549282332520086</v>
+        <v>5.548212287410699</v>
       </c>
       <c r="C181" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>6.35863559452673</v>
+        <v>6.355242046220358</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F181" t="n">
-        <v>6.35863559452673</v>
+        <v>6.355242046220358</v>
       </c>
       <c r="G181" t="n">
-        <v>0.001174638454821981</v>
+        <v>0.001186426623782706</v>
       </c>
       <c r="H181" t="n">
-        <v>5.549282332520086</v>
+        <v>5.548212287410699</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0002291912774959135</v>
+        <v>0.0001991612939361322</v>
       </c>
       <c r="J181" t="n">
-        <v>5.549282332520086</v>
+        <v>5.548212287410699</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0002514553775477511</v>
+        <v>0.0002527339200308753</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.585849524356769</v>
+        <v>5.584832981502851</v>
       </c>
       <c r="C182" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>6.400241628882995</v>
+        <v>6.397017757991941</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F182" t="n">
-        <v>6.400241628882995</v>
+        <v>6.397017757991941</v>
       </c>
       <c r="G182" t="n">
-        <v>0.001036842389250609</v>
+        <v>0.001047447808322034</v>
       </c>
       <c r="H182" t="n">
-        <v>5.585849524356769</v>
+        <v>5.584832981502851</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0002014053681133159</v>
+        <v>0.0001732775058397586</v>
       </c>
       <c r="J182" t="n">
-        <v>5.585849524356769</v>
+        <v>5.584832981502851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0002148484637267898</v>
+        <v>0.0002158433060828337</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.622416716193452</v>
+        <v>5.621453675595004</v>
       </c>
       <c r="C183" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>6.441847663239259</v>
+        <v>6.438793469763525</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F183" t="n">
-        <v>6.441847663239259</v>
+        <v>6.438793469763525</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0009080714416707897</v>
+        <v>0.0009174469718146063</v>
       </c>
       <c r="H183" t="n">
-        <v>5.622416716193452</v>
+        <v>5.621453675595004</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0001803352279582105</v>
+        <v>0.0001530663498648981</v>
       </c>
       <c r="J183" t="n">
-        <v>5.622416716193452</v>
+        <v>5.621453675595004</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0001857361846531075</v>
+        <v>0.0001863528281565154</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.658983908030136</v>
+        <v>5.658074369687156</v>
       </c>
       <c r="C184" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>6.483453697595524</v>
+        <v>6.480569181535108</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F184" t="n">
-        <v>6.483453697595524</v>
+        <v>6.480569181535108</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0007894581265209356</v>
+        <v>0.000797604345637469</v>
       </c>
       <c r="H184" t="n">
-        <v>5.658983908030136</v>
+        <v>5.658074369687156</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0001645597221868795</v>
+        <v>0.0001374569432152611</v>
       </c>
       <c r="J184" t="n">
-        <v>5.658983908030136</v>
+        <v>5.658074369687156</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0001628062693274508</v>
+        <v>0.0001632713534255053</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.695551099866819</v>
+        <v>5.694695063779309</v>
       </c>
       <c r="C185" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>6.52505973195179</v>
+        <v>6.522344893306691</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F185" t="n">
-        <v>6.52505973195179</v>
+        <v>6.522344893306691</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0006817144854942801</v>
+        <v>0.0006886718833973893</v>
       </c>
       <c r="H185" t="n">
-        <v>5.695551099866819</v>
+        <v>5.694695063779309</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0001529020715799888</v>
+        <v>0.0001255344849849835</v>
       </c>
       <c r="J185" t="n">
-        <v>5.695551099866819</v>
+        <v>5.694695063779309</v>
       </c>
       <c r="K185" t="n">
-        <v>0.000144776249796031</v>
+        <v>0.0001451227743591912</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.732118291703502</v>
+        <v>5.731315757871462</v>
       </c>
       <c r="C186" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>6.566665766308055</v>
+        <v>6.564120605078275</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F186" t="n">
-        <v>6.566665766308055</v>
+        <v>6.564120605078275</v>
       </c>
       <c r="G186" t="n">
-        <v>0.000585161674288699</v>
+        <v>0.0005910020479784932</v>
       </c>
       <c r="H186" t="n">
-        <v>5.732118291703502</v>
+        <v>5.731315757871462</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001165296285089644</v>
       </c>
       <c r="J186" t="n">
-        <v>5.732118291703502</v>
+        <v>5.731315757871462</v>
       </c>
       <c r="K186" t="n">
-        <v>0.000130739969747798</v>
+        <v>0.0001309948794987566</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.768685483540185</v>
+        <v>5.767936451963614</v>
       </c>
       <c r="C187" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>6.608271800664319</v>
+        <v>6.605896316849859</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F187" t="n">
-        <v>6.608271800664319</v>
+        <v>6.605896316849859</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0004997737061862668</v>
+        <v>0.0005045914307930605</v>
       </c>
       <c r="H187" t="n">
-        <v>5.768685483540185</v>
+        <v>5.767936451963614</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J187" t="n">
-        <v>5.768685483540185</v>
+        <v>5.767936451963614</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0001199236646375658</v>
+        <v>0.0001201086746225044</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.805252675376869</v>
+        <v>5.804557146055767</v>
       </c>
       <c r="C188" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>6.649877835020584</v>
+        <v>6.647672028621442</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F188" t="n">
-        <v>6.649877835020584</v>
+        <v>6.647672028621442</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0004252307541474257</v>
+        <v>0.000429134489533688</v>
       </c>
       <c r="H188" t="n">
-        <v>5.805252675376869</v>
+        <v>5.804557146055767</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J188" t="n">
-        <v>5.805252675376869</v>
+        <v>5.804557146055767</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0001116749682142369</v>
+        <v>0.0001118073465409271</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.841819867213552</v>
+        <v>5.841177840147919</v>
       </c>
       <c r="C189" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>6.691483869376849</v>
+        <v>6.689447740393025</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F189" t="n">
-        <v>6.691483869376849</v>
+        <v>6.689447740393025</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0003609775542688526</v>
+        <v>0.0003640828116985549</v>
       </c>
       <c r="H189" t="n">
-        <v>5.841819867213552</v>
+        <v>5.841177840147919</v>
       </c>
       <c r="I189" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J189" t="n">
-        <v>5.841819867213552</v>
+        <v>5.841177840147919</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0001054508300708068</v>
+        <v>0.000105544121607638</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.878387059050235</v>
+        <v>5.877798534240072</v>
       </c>
       <c r="C190" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>6.733089903733115</v>
+        <v>6.731223452164609</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F190" t="n">
-        <v>6.733089903733115</v>
+        <v>6.731223452164609</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0003062828729185019</v>
+        <v>0.0003087057246329677</v>
       </c>
       <c r="H190" t="n">
-        <v>5.878387059050235</v>
+        <v>5.877798534240072</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J190" t="n">
-        <v>5.878387059050235</v>
+        <v>5.877798534240072</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0001008049475180326</v>
+        <v>0.0001008696278176063</v>
       </c>
     </row>
     <row r="191">
@@ -7105,31 +7105,31 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.914954250886918</v>
+        <v>5.914419228332225</v>
       </c>
       <c r="C191" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>6.774695938089379</v>
+        <v>6.772999163936192</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F191" t="n">
-        <v>6.774695938089379</v>
+        <v>6.772999163936192</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0002602966246769336</v>
+        <v>0.0002621487040343818</v>
       </c>
       <c r="H191" t="n">
-        <v>5.914954250886918</v>
+        <v>5.914419228332225</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J191" t="n">
-        <v>5.914954250886918</v>
+        <v>5.914419228332225</v>
       </c>
       <c r="K191" t="n">
         <v>9.913507748712939e-05</v>
@@ -7140,31 +7140,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.951521442723601</v>
+        <v>5.951039922424377</v>
       </c>
       <c r="C192" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>6.816301972445644</v>
+        <v>6.814774875707776</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F192" t="n">
-        <v>6.816301972445644</v>
+        <v>6.814774875707776</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002221019791574404</v>
+        <v>0.0002234867998824198</v>
       </c>
       <c r="H192" t="n">
-        <v>5.951521442723601</v>
+        <v>5.951039922424377</v>
       </c>
       <c r="I192" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J192" t="n">
-        <v>5.951521442723601</v>
+        <v>5.951039922424377</v>
       </c>
       <c r="K192" t="n">
         <v>9.913507748712939e-05</v>
@@ -7175,31 +7175,31 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.988088634560285</v>
+        <v>5.987660616516529</v>
       </c>
       <c r="C193" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>6.857908006801909</v>
+        <v>6.85655058747936</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F193" t="n">
-        <v>6.857908006801909</v>
+        <v>6.85655058747936</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0001907605944281601</v>
+        <v>0.0001917711209909413</v>
       </c>
       <c r="H193" t="n">
-        <v>5.988088634560285</v>
+        <v>5.987660616516529</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J193" t="n">
-        <v>5.988088634560285</v>
+        <v>5.987660616516529</v>
       </c>
       <c r="K193" t="n">
         <v>9.913507748712939e-05</v>
@@ -7210,31 +7210,31 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.024655826396967</v>
+        <v>6.024281310608682</v>
       </c>
       <c r="C194" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>6.899514041158174</v>
+        <v>6.898326299250943</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F194" t="n">
-        <v>6.899514041158174</v>
+        <v>6.898326299250943</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0001653498942695035</v>
+        <v>0.0001660672247556608</v>
       </c>
       <c r="H194" t="n">
-        <v>6.024655826396967</v>
+        <v>6.024281310608682</v>
       </c>
       <c r="I194" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J194" t="n">
-        <v>6.024655826396967</v>
+        <v>6.024281310608682</v>
       </c>
       <c r="K194" t="n">
         <v>9.913507748712939e-05</v>
@@ -7245,31 +7245,31 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.06122301823365</v>
+        <v>6.060902004700835</v>
       </c>
       <c r="C195" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>6.941120075514439</v>
+        <v>6.940102011022526</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F195" t="n">
-        <v>6.941120075514439</v>
+        <v>6.940102011022526</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0001449920105039522</v>
+        <v>0.0001454849888725939</v>
       </c>
       <c r="H195" t="n">
-        <v>6.06122301823365</v>
+        <v>6.060902004700835</v>
       </c>
       <c r="I195" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J195" t="n">
-        <v>6.06122301823365</v>
+        <v>6.060902004700835</v>
       </c>
       <c r="K195" t="n">
         <v>9.913507748712939e-05</v>
@@ -7280,31 +7280,31 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.097790210070333</v>
+        <v>6.097522698792988</v>
       </c>
       <c r="C196" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>6.982726109870704</v>
+        <v>6.98187772279411</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F196" t="n">
-        <v>6.982726109870704</v>
+        <v>6.98187772279411</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0001288746010384453</v>
+        <v>0.0001292001553260677</v>
       </c>
       <c r="H196" t="n">
-        <v>6.097790210070333</v>
+        <v>6.097522698792988</v>
       </c>
       <c r="I196" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J196" t="n">
-        <v>6.097790210070333</v>
+        <v>6.097522698792988</v>
       </c>
       <c r="K196" t="n">
         <v>9.913507748712939e-05</v>
@@ -7315,31 +7315,31 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6.134357401907017</v>
+        <v>6.134143392885139</v>
       </c>
       <c r="C197" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>7.024332144226969</v>
+        <v>7.023653434565693</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F197" t="n">
-        <v>7.024332144226969</v>
+        <v>7.023653434565693</v>
       </c>
       <c r="G197" t="n">
-        <v>0.000116264206935428</v>
+        <v>0.0001164682099444902</v>
       </c>
       <c r="H197" t="n">
-        <v>6.134357401907017</v>
+        <v>6.134143392885139</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J197" t="n">
-        <v>6.134357401907017</v>
+        <v>6.134143392885139</v>
       </c>
       <c r="K197" t="n">
         <v>9.913507748712939e-05</v>
@@ -7350,31 +7350,31 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6.1709245937437</v>
+        <v>6.170764086977292</v>
       </c>
       <c r="C198" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>7.065938178583234</v>
+        <v>7.065429146337276</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F198" t="n">
-        <v>7.065938178583234</v>
+        <v>7.065429146337276</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0001065131214893133</v>
+        <v>0.0001066315860247622</v>
       </c>
       <c r="H198" t="n">
-        <v>6.1709245937437</v>
+        <v>6.170764086977292</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J198" t="n">
-        <v>6.1709245937437</v>
+        <v>6.170764086977292</v>
       </c>
       <c r="K198" t="n">
         <v>9.913507748712939e-05</v>
@@ -7385,31 +7385,31 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.207491785580383</v>
+        <v>6.207384781069445</v>
       </c>
       <c r="C199" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>7.1075442129395</v>
+        <v>7.10720485810886</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F199" t="n">
-        <v>7.1075442129395</v>
+        <v>7.10720485810886</v>
       </c>
       <c r="G199" t="n">
-        <v>9.90609179692019e-05</v>
+        <v>9.912136467177071e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>6.207491785580383</v>
+        <v>6.207384781069445</v>
       </c>
       <c r="I199" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J199" t="n">
-        <v>6.207491785580383</v>
+        <v>6.207384781069445</v>
       </c>
       <c r="K199" t="n">
         <v>9.913507748712939e-05</v>
@@ -7420,31 +7420,31 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.244058977417066</v>
+        <v>6.244005475161598</v>
       </c>
       <c r="C200" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>7.149150247295763</v>
+        <v>7.148980569880445</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F200" t="n">
-        <v>7.149150247295763</v>
+        <v>7.148980569880445</v>
       </c>
       <c r="G200" t="n">
-        <v>9.343183739325072e-05</v>
+        <v>9.345470485441547e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>6.244058977417066</v>
+        <v>6.244005475161598</v>
       </c>
       <c r="I200" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J200" t="n">
-        <v>6.244058977417066</v>
+        <v>6.244005475161598</v>
       </c>
       <c r="K200" t="n">
         <v>9.913507748712939e-05</v>
@@ -7464,7 +7464,7 @@
         <v>7.190756281652028</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001699500680723307</v>
+        <v>0.0001291894496489292</v>
       </c>
       <c r="F201" t="n">
         <v>7.190756281652028</v>
@@ -7476,7 +7476,7 @@
         <v>6.28062616925375</v>
       </c>
       <c r="I201" t="n">
-        <v>0.0001514369729706202</v>
+        <v>0.0001098422444028268</v>
       </c>
       <c r="J201" t="n">
         <v>6.28062616925375</v>
